--- a/Diagrams/gantt1.xlsx
+++ b/Diagrams/gantt1.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Folha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -765,7 +764,7 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -902,18 +901,11 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="21" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="37" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -942,6 +934,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -960,16 +961,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="22" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="35" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="21" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="37" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Cor1" xfId="1" builtinId="29"/>
@@ -1270,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CK115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AQ14" sqref="AQ14:AR14"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BA12" sqref="BA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1368,127 +1362,127 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="95">
+      <c r="F3" s="118">
         <v>44494</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="92">
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="109">
         <v>44501</v>
       </c>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="92">
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="109">
         <v>44508</v>
       </c>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="92">
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="109">
         <v>44515</v>
       </c>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="92">
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="111"/>
+      <c r="AH3" s="109">
         <v>44522</v>
       </c>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="94"/>
-      <c r="AO3" s="92">
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="110"/>
+      <c r="AK3" s="110"/>
+      <c r="AL3" s="110"/>
+      <c r="AM3" s="110"/>
+      <c r="AN3" s="111"/>
+      <c r="AO3" s="109">
         <v>44529</v>
       </c>
-      <c r="AP3" s="93"/>
-      <c r="AQ3" s="93"/>
-      <c r="AR3" s="93"/>
-      <c r="AS3" s="93"/>
-      <c r="AT3" s="93"/>
-      <c r="AU3" s="94"/>
-      <c r="AV3" s="92">
+      <c r="AP3" s="110"/>
+      <c r="AQ3" s="110"/>
+      <c r="AR3" s="110"/>
+      <c r="AS3" s="110"/>
+      <c r="AT3" s="110"/>
+      <c r="AU3" s="111"/>
+      <c r="AV3" s="109">
         <v>44536</v>
       </c>
-      <c r="AW3" s="93"/>
-      <c r="AX3" s="93"/>
-      <c r="AY3" s="93"/>
-      <c r="AZ3" s="93"/>
-      <c r="BA3" s="93"/>
-      <c r="BB3" s="94"/>
-      <c r="BC3" s="92">
+      <c r="AW3" s="110"/>
+      <c r="AX3" s="110"/>
+      <c r="AY3" s="110"/>
+      <c r="AZ3" s="110"/>
+      <c r="BA3" s="110"/>
+      <c r="BB3" s="111"/>
+      <c r="BC3" s="109">
         <v>44543</v>
       </c>
-      <c r="BD3" s="93"/>
-      <c r="BE3" s="93"/>
-      <c r="BF3" s="93"/>
-      <c r="BG3" s="93"/>
-      <c r="BH3" s="93"/>
-      <c r="BI3" s="94"/>
-      <c r="BJ3" s="92">
+      <c r="BD3" s="110"/>
+      <c r="BE3" s="110"/>
+      <c r="BF3" s="110"/>
+      <c r="BG3" s="110"/>
+      <c r="BH3" s="110"/>
+      <c r="BI3" s="111"/>
+      <c r="BJ3" s="109">
         <v>44550</v>
       </c>
-      <c r="BK3" s="93"/>
-      <c r="BL3" s="93"/>
-      <c r="BM3" s="93"/>
-      <c r="BN3" s="93"/>
-      <c r="BO3" s="93"/>
-      <c r="BP3" s="94"/>
-      <c r="BQ3" s="92">
+      <c r="BK3" s="110"/>
+      <c r="BL3" s="110"/>
+      <c r="BM3" s="110"/>
+      <c r="BN3" s="110"/>
+      <c r="BO3" s="110"/>
+      <c r="BP3" s="111"/>
+      <c r="BQ3" s="109">
         <v>44557</v>
       </c>
-      <c r="BR3" s="93"/>
-      <c r="BS3" s="93"/>
-      <c r="BT3" s="93"/>
-      <c r="BU3" s="93"/>
-      <c r="BV3" s="93"/>
-      <c r="BW3" s="94"/>
-      <c r="BX3" s="92">
+      <c r="BR3" s="110"/>
+      <c r="BS3" s="110"/>
+      <c r="BT3" s="110"/>
+      <c r="BU3" s="110"/>
+      <c r="BV3" s="110"/>
+      <c r="BW3" s="111"/>
+      <c r="BX3" s="109">
         <v>44564</v>
       </c>
-      <c r="BY3" s="93"/>
-      <c r="BZ3" s="93"/>
-      <c r="CA3" s="93"/>
-      <c r="CB3" s="93"/>
-      <c r="CC3" s="93"/>
-      <c r="CD3" s="94"/>
-      <c r="CE3" s="92">
+      <c r="BY3" s="110"/>
+      <c r="BZ3" s="110"/>
+      <c r="CA3" s="110"/>
+      <c r="CB3" s="110"/>
+      <c r="CC3" s="110"/>
+      <c r="CD3" s="111"/>
+      <c r="CE3" s="109">
         <v>44571</v>
       </c>
-      <c r="CF3" s="93"/>
-      <c r="CG3" s="93"/>
-      <c r="CH3" s="93"/>
-      <c r="CI3" s="93"/>
-      <c r="CJ3" s="93"/>
-      <c r="CK3" s="94"/>
+      <c r="CF3" s="110"/>
+      <c r="CG3" s="110"/>
+      <c r="CH3" s="110"/>
+      <c r="CI3" s="110"/>
+      <c r="CJ3" s="110"/>
+      <c r="CK3" s="111"/>
     </row>
     <row r="4" spans="1:89" ht="26.4" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="103"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="104"/>
       <c r="F4" s="6">
         <v>25</v>
       </c>
@@ -1746,8 +1740,8 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="104"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="6" t="s">
         <v>0</v>
       </c>
@@ -2003,7 +1997,7 @@
     </row>
     <row r="6" spans="1:89" ht="26.4" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="112" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="50" t="s">
@@ -2102,7 +2096,7 @@
     </row>
     <row r="7" spans="1:89" ht="26.25" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="109"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
@@ -2199,7 +2193,7 @@
     </row>
     <row r="8" spans="1:89" ht="26.4" customHeight="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="110"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="51" t="s">
         <v>9</v>
       </c>
@@ -2296,7 +2290,7 @@
     </row>
     <row r="9" spans="1:89" ht="26.4" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="115" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="52" t="s">
@@ -2395,7 +2389,7 @@
     </row>
     <row r="10" spans="1:89" ht="26.4" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="112"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="52" t="s">
         <v>12</v>
       </c>
@@ -2492,7 +2486,7 @@
     </row>
     <row r="11" spans="1:89" ht="26.4" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="112"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="52" t="s">
         <v>11</v>
       </c>
@@ -2516,7 +2510,7 @@
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="21"/>
-      <c r="T11" s="122"/>
+      <c r="T11" s="95"/>
       <c r="U11" s="67"/>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
@@ -2589,7 +2583,7 @@
     </row>
     <row r="12" spans="1:89" ht="26.4" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="112"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="52" t="s">
         <v>13</v>
       </c>
@@ -2614,7 +2608,7 @@
       <c r="R12" s="17"/>
       <c r="S12" s="78"/>
       <c r="T12" s="77"/>
-      <c r="U12" s="123"/>
+      <c r="U12" s="96"/>
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
@@ -2686,7 +2680,7 @@
     </row>
     <row r="13" spans="1:89" ht="26.4" customHeight="1" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="113"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="52" t="s">
         <v>17</v>
       </c>
@@ -2700,12 +2694,12 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="120"/>
+      <c r="J13" s="93"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="27"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="121"/>
+      <c r="O13" s="94"/>
       <c r="P13" s="78"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
@@ -2783,7 +2777,7 @@
     </row>
     <row r="14" spans="1:89" ht="26.4" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="100" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="53" t="s">
@@ -2881,7 +2875,7 @@
       <c r="CK14" s="12"/>
     </row>
     <row r="15" spans="1:89" ht="26.4" customHeight="1">
-      <c r="B15" s="100"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="53" t="s">
         <v>15</v>
       </c>
@@ -2918,14 +2912,14 @@
       <c r="AD15" s="39"/>
       <c r="AE15" s="39"/>
       <c r="AF15" s="39"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="116"/>
-      <c r="AJ15" s="116"/>
-      <c r="AK15" s="116"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="26"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="39"/>
+      <c r="AM15" s="39"/>
+      <c r="AN15" s="33"/>
       <c r="AO15" s="10"/>
       <c r="AP15" s="10"/>
       <c r="AQ15" s="10"/>
@@ -2977,7 +2971,7 @@
       <c r="CK15" s="12"/>
     </row>
     <row r="16" spans="1:89" ht="26.4" customHeight="1">
-      <c r="B16" s="100"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="53" t="s">
         <v>16</v>
       </c>
@@ -3013,15 +3007,15 @@
       <c r="AC16" s="39"/>
       <c r="AD16" s="38"/>
       <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="115"/>
-      <c r="AH16" s="117"/>
-      <c r="AI16" s="114"/>
-      <c r="AJ16" s="114"/>
-      <c r="AK16" s="114"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="26"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="33"/>
       <c r="AO16" s="10"/>
       <c r="AP16" s="10"/>
       <c r="AQ16" s="10"/>
@@ -3073,7 +3067,7 @@
       <c r="CK16" s="12"/>
     </row>
     <row r="17" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B17" s="100"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="53" t="s">
         <v>23</v>
       </c>
@@ -3114,17 +3108,17 @@
       <c r="AH17" s="39"/>
       <c r="AI17" s="39"/>
       <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="10"/>
-      <c r="AP17" s="10"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="26"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="39"/>
+      <c r="AR17" s="39"/>
+      <c r="AS17" s="39"/>
+      <c r="AT17" s="39"/>
+      <c r="AU17" s="33"/>
       <c r="AV17" s="27"/>
       <c r="AW17" s="10"/>
       <c r="AX17" s="10"/>
@@ -3169,7 +3163,7 @@
       <c r="CK17" s="12"/>
     </row>
     <row r="18" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B18" s="100"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="53" t="s">
         <v>18</v>
       </c>
@@ -3212,15 +3206,15 @@
       <c r="AJ18" s="36"/>
       <c r="AK18" s="36"/>
       <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="33"/>
-      <c r="AO18" s="10"/>
-      <c r="AP18" s="10"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="26"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="39"/>
+      <c r="AU18" s="33"/>
       <c r="AV18" s="27"/>
       <c r="AW18" s="10"/>
       <c r="AX18" s="10"/>
@@ -3265,7 +3259,7 @@
       <c r="CK18" s="12"/>
     </row>
     <row r="19" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B19" s="100"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="53" t="s">
         <v>19</v>
       </c>
@@ -3361,7 +3355,7 @@
       <c r="CK19" s="12"/>
     </row>
     <row r="20" spans="2:89" ht="26.4" customHeight="1" thickBot="1">
-      <c r="B20" s="101"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="53" t="s">
         <v>30</v>
       </c>
@@ -3407,14 +3401,14 @@
       <c r="AM20" s="39"/>
       <c r="AN20" s="39"/>
       <c r="AO20" s="39"/>
-      <c r="AP20" s="33"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="26"/>
-      <c r="AV20" s="27"/>
-      <c r="AW20" s="10"/>
+      <c r="AP20" s="39"/>
+      <c r="AQ20" s="39"/>
+      <c r="AR20" s="39"/>
+      <c r="AS20" s="39"/>
+      <c r="AT20" s="39"/>
+      <c r="AU20" s="39"/>
+      <c r="AV20" s="39"/>
+      <c r="AW20" s="33"/>
       <c r="AX20" s="10"/>
       <c r="AY20" s="10"/>
       <c r="AZ20" s="10"/>
@@ -3457,7 +3451,7 @@
       <c r="CK20" s="12"/>
     </row>
     <row r="21" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="97" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="54" t="s">
@@ -3555,7 +3549,7 @@
       <c r="CK21" s="12"/>
     </row>
     <row r="22" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B22" s="97"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="54" t="s">
         <v>24</v>
       </c>
@@ -3651,7 +3645,7 @@
       <c r="CK22" s="12"/>
     </row>
     <row r="23" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B23" s="97"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="54" t="s">
         <v>20</v>
       </c>
@@ -3747,7 +3741,7 @@
       <c r="CK23" s="12"/>
     </row>
     <row r="24" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B24" s="97"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="54" t="s">
         <v>21</v>
       </c>
@@ -3843,7 +3837,7 @@
       <c r="CK24" s="12"/>
     </row>
     <row r="25" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B25" s="97"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="54" t="s">
         <v>22</v>
       </c>
@@ -3939,7 +3933,7 @@
       <c r="CK25" s="12"/>
     </row>
     <row r="26" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B26" s="97"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="54" t="s">
         <v>34</v>
       </c>
@@ -4035,7 +4029,7 @@
       <c r="CK26" s="12"/>
     </row>
     <row r="27" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B27" s="97"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="54" t="s">
         <v>27</v>
       </c>
@@ -4131,7 +4125,7 @@
       <c r="CK27" s="12"/>
     </row>
     <row r="28" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B28" s="97"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="54" t="s">
         <v>25</v>
       </c>
@@ -4227,7 +4221,7 @@
       <c r="CK28" s="12"/>
     </row>
     <row r="29" spans="2:89" ht="26.4" customHeight="1" thickBot="1">
-      <c r="B29" s="98"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="55" t="s">
         <v>26</v>
       </c>
@@ -4320,7 +4314,7 @@
       <c r="CH29" s="49"/>
       <c r="CI29" s="49"/>
       <c r="CJ29" s="49"/>
-      <c r="CK29" s="119"/>
+      <c r="CK29" s="92"/>
     </row>
     <row r="30" spans="2:89" ht="26.4" customHeight="1">
       <c r="B30" s="5"/>
@@ -4413,13 +4407,6 @@
     <row r="115" ht="26.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="BQ3:BW3"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B13"/>
     <mergeCell ref="BX3:CD3"/>
     <mergeCell ref="CE3:CK3"/>
     <mergeCell ref="F3:L3"/>
@@ -4431,6 +4418,13 @@
     <mergeCell ref="AV3:BB3"/>
     <mergeCell ref="BC3:BI3"/>
     <mergeCell ref="BJ3:BP3"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="BQ3:BW3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="25" orientation="landscape" r:id="rId1"/>

--- a/Diagrams/gantt1.xlsx
+++ b/Diagrams/gantt1.xlsx
@@ -906,6 +906,18 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -934,15 +946,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -960,9 +963,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:CK115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BA12" sqref="BA12"/>
+      <selection activeCell="BA6" sqref="BA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1362,127 +1362,127 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="118">
+      <c r="F3" s="100">
         <v>44494</v>
       </c>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="109">
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="97">
         <v>44501</v>
       </c>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="109">
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="97">
         <v>44508</v>
       </c>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="109">
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="97">
         <v>44515</v>
       </c>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="109">
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="97">
         <v>44522</v>
       </c>
-      <c r="AI3" s="110"/>
-      <c r="AJ3" s="110"/>
-      <c r="AK3" s="110"/>
-      <c r="AL3" s="110"/>
-      <c r="AM3" s="110"/>
-      <c r="AN3" s="111"/>
-      <c r="AO3" s="109">
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="98"/>
+      <c r="AN3" s="99"/>
+      <c r="AO3" s="97">
         <v>44529</v>
       </c>
-      <c r="AP3" s="110"/>
-      <c r="AQ3" s="110"/>
-      <c r="AR3" s="110"/>
-      <c r="AS3" s="110"/>
-      <c r="AT3" s="110"/>
-      <c r="AU3" s="111"/>
-      <c r="AV3" s="109">
+      <c r="AP3" s="98"/>
+      <c r="AQ3" s="98"/>
+      <c r="AR3" s="98"/>
+      <c r="AS3" s="98"/>
+      <c r="AT3" s="98"/>
+      <c r="AU3" s="99"/>
+      <c r="AV3" s="97">
         <v>44536</v>
       </c>
-      <c r="AW3" s="110"/>
-      <c r="AX3" s="110"/>
-      <c r="AY3" s="110"/>
-      <c r="AZ3" s="110"/>
-      <c r="BA3" s="110"/>
-      <c r="BB3" s="111"/>
-      <c r="BC3" s="109">
+      <c r="AW3" s="98"/>
+      <c r="AX3" s="98"/>
+      <c r="AY3" s="98"/>
+      <c r="AZ3" s="98"/>
+      <c r="BA3" s="98"/>
+      <c r="BB3" s="99"/>
+      <c r="BC3" s="97">
         <v>44543</v>
       </c>
-      <c r="BD3" s="110"/>
-      <c r="BE3" s="110"/>
-      <c r="BF3" s="110"/>
-      <c r="BG3" s="110"/>
-      <c r="BH3" s="110"/>
-      <c r="BI3" s="111"/>
-      <c r="BJ3" s="109">
+      <c r="BD3" s="98"/>
+      <c r="BE3" s="98"/>
+      <c r="BF3" s="98"/>
+      <c r="BG3" s="98"/>
+      <c r="BH3" s="98"/>
+      <c r="BI3" s="99"/>
+      <c r="BJ3" s="97">
         <v>44550</v>
       </c>
-      <c r="BK3" s="110"/>
-      <c r="BL3" s="110"/>
-      <c r="BM3" s="110"/>
-      <c r="BN3" s="110"/>
-      <c r="BO3" s="110"/>
-      <c r="BP3" s="111"/>
-      <c r="BQ3" s="109">
+      <c r="BK3" s="98"/>
+      <c r="BL3" s="98"/>
+      <c r="BM3" s="98"/>
+      <c r="BN3" s="98"/>
+      <c r="BO3" s="98"/>
+      <c r="BP3" s="99"/>
+      <c r="BQ3" s="97">
         <v>44557</v>
       </c>
-      <c r="BR3" s="110"/>
-      <c r="BS3" s="110"/>
-      <c r="BT3" s="110"/>
-      <c r="BU3" s="110"/>
-      <c r="BV3" s="110"/>
-      <c r="BW3" s="111"/>
-      <c r="BX3" s="109">
+      <c r="BR3" s="98"/>
+      <c r="BS3" s="98"/>
+      <c r="BT3" s="98"/>
+      <c r="BU3" s="98"/>
+      <c r="BV3" s="98"/>
+      <c r="BW3" s="99"/>
+      <c r="BX3" s="97">
         <v>44564</v>
       </c>
-      <c r="BY3" s="110"/>
-      <c r="BZ3" s="110"/>
-      <c r="CA3" s="110"/>
-      <c r="CB3" s="110"/>
-      <c r="CC3" s="110"/>
-      <c r="CD3" s="111"/>
-      <c r="CE3" s="109">
+      <c r="BY3" s="98"/>
+      <c r="BZ3" s="98"/>
+      <c r="CA3" s="98"/>
+      <c r="CB3" s="98"/>
+      <c r="CC3" s="98"/>
+      <c r="CD3" s="99"/>
+      <c r="CE3" s="97">
         <v>44571</v>
       </c>
-      <c r="CF3" s="110"/>
-      <c r="CG3" s="110"/>
-      <c r="CH3" s="110"/>
-      <c r="CI3" s="110"/>
-      <c r="CJ3" s="110"/>
-      <c r="CK3" s="111"/>
+      <c r="CF3" s="98"/>
+      <c r="CG3" s="98"/>
+      <c r="CH3" s="98"/>
+      <c r="CI3" s="98"/>
+      <c r="CJ3" s="98"/>
+      <c r="CK3" s="99"/>
     </row>
     <row r="4" spans="1:89" ht="26.4" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="104"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="6">
         <v>25</v>
       </c>
@@ -1740,8 +1740,8 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="105"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="6" spans="1:89" ht="26.4" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="113" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="50" t="s">
@@ -2096,7 +2096,7 @@
     </row>
     <row r="7" spans="1:89" ht="26.25" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="113"/>
+      <c r="B7" s="114"/>
       <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="8" spans="1:89" ht="26.4" customHeight="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="114"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="51" t="s">
         <v>9</v>
       </c>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="9" spans="1:89" ht="26.4" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="116" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="52" t="s">
@@ -2389,7 +2389,7 @@
     </row>
     <row r="10" spans="1:89" ht="26.4" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="116"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="52" t="s">
         <v>12</v>
       </c>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="11" spans="1:89" ht="26.4" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="116"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="52" t="s">
         <v>11</v>
       </c>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="12" spans="1:89" ht="26.4" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="116"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="52" t="s">
         <v>13</v>
       </c>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="13" spans="1:89" ht="26.4" customHeight="1" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="117"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="52" t="s">
         <v>17</v>
       </c>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="14" spans="1:89" ht="26.4" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="104" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="53" t="s">
@@ -2875,7 +2875,7 @@
       <c r="CK14" s="12"/>
     </row>
     <row r="15" spans="1:89" ht="26.4" customHeight="1">
-      <c r="B15" s="101"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="53" t="s">
         <v>15</v>
       </c>
@@ -2971,7 +2971,7 @@
       <c r="CK15" s="12"/>
     </row>
     <row r="16" spans="1:89" ht="26.4" customHeight="1">
-      <c r="B16" s="101"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="53" t="s">
         <v>16</v>
       </c>
@@ -3067,7 +3067,7 @@
       <c r="CK16" s="12"/>
     </row>
     <row r="17" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B17" s="101"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="53" t="s">
         <v>23</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="CK17" s="12"/>
     </row>
     <row r="18" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B18" s="101"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="53" t="s">
         <v>18</v>
       </c>
@@ -3259,7 +3259,7 @@
       <c r="CK18" s="12"/>
     </row>
     <row r="19" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B19" s="101"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="53" t="s">
         <v>19</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="CK19" s="12"/>
     </row>
     <row r="20" spans="2:89" ht="26.4" customHeight="1" thickBot="1">
-      <c r="B20" s="102"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="53" t="s">
         <v>30</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="CK20" s="12"/>
     </row>
     <row r="21" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="101" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="54" t="s">
@@ -3494,24 +3494,24 @@
       <c r="AH21" s="27"/>
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="43"/>
-      <c r="AN21" s="42"/>
-      <c r="AO21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="27"/>
       <c r="AP21" s="10"/>
       <c r="AQ21" s="10"/>
-      <c r="AR21" s="10"/>
-      <c r="AS21" s="10"/>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="26"/>
-      <c r="AV21" s="27"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="41"/>
+      <c r="AT21" s="43"/>
+      <c r="AU21" s="42"/>
+      <c r="AV21" s="10"/>
       <c r="AW21" s="10"/>
       <c r="AX21" s="10"/>
       <c r="AY21" s="10"/>
       <c r="AZ21" s="10"/>
       <c r="BA21" s="10"/>
-      <c r="BB21" s="71"/>
+      <c r="BB21" s="26"/>
       <c r="BC21" s="10"/>
       <c r="BD21" s="10"/>
       <c r="BE21" s="10"/>
@@ -3549,7 +3549,7 @@
       <c r="CK21" s="12"/>
     </row>
     <row r="22" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B22" s="98"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="54" t="s">
         <v>24</v>
       </c>
@@ -3592,14 +3592,14 @@
       <c r="AJ22" s="10"/>
       <c r="AK22" s="10"/>
       <c r="AL22" s="10"/>
-      <c r="AM22" s="40"/>
-      <c r="AN22" s="41"/>
-      <c r="AO22" s="41"/>
-      <c r="AP22" s="41"/>
-      <c r="AQ22" s="41"/>
-      <c r="AR22" s="41"/>
-      <c r="AS22" s="41"/>
-      <c r="AT22" s="43"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="40"/>
       <c r="AU22" s="41"/>
       <c r="AV22" s="41"/>
       <c r="AW22" s="41"/>
@@ -3607,7 +3607,7 @@
       <c r="AY22" s="41"/>
       <c r="AZ22" s="41"/>
       <c r="BA22" s="43"/>
-      <c r="BB22" s="44"/>
+      <c r="BB22" s="41"/>
       <c r="BC22" s="10"/>
       <c r="BD22" s="10"/>
       <c r="BE22" s="10"/>
@@ -3645,7 +3645,7 @@
       <c r="CK22" s="12"/>
     </row>
     <row r="23" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B23" s="98"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="54" t="s">
         <v>20</v>
       </c>
@@ -3695,14 +3695,14 @@
       <c r="AQ23" s="10"/>
       <c r="AR23" s="10"/>
       <c r="AS23" s="10"/>
-      <c r="AT23" s="45"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="41"/>
-      <c r="AX23" s="41"/>
-      <c r="AY23" s="41"/>
-      <c r="AZ23" s="41"/>
-      <c r="BA23" s="41"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="26"/>
+      <c r="AV23" s="27"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="45"/>
       <c r="BB23" s="41"/>
       <c r="BC23" s="41"/>
       <c r="BD23" s="41"/>
@@ -3741,7 +3741,7 @@
       <c r="CK23" s="12"/>
     </row>
     <row r="24" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B24" s="98"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="54" t="s">
         <v>21</v>
       </c>
@@ -3784,14 +3784,14 @@
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
       <c r="AL24" s="10"/>
-      <c r="AM24" s="40"/>
-      <c r="AN24" s="41"/>
-      <c r="AO24" s="41"/>
-      <c r="AP24" s="41"/>
-      <c r="AQ24" s="41"/>
-      <c r="AR24" s="41"/>
-      <c r="AS24" s="41"/>
-      <c r="AT24" s="41"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="27"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="40"/>
       <c r="AU24" s="41"/>
       <c r="AV24" s="41"/>
       <c r="AW24" s="41"/>
@@ -3837,7 +3837,7 @@
       <c r="CK24" s="12"/>
     </row>
     <row r="25" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B25" s="98"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="54" t="s">
         <v>22</v>
       </c>
@@ -3880,14 +3880,14 @@
       <c r="AJ25" s="10"/>
       <c r="AK25" s="10"/>
       <c r="AL25" s="10"/>
-      <c r="AM25" s="40"/>
-      <c r="AN25" s="41"/>
-      <c r="AO25" s="41"/>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="41"/>
-      <c r="AT25" s="41"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="27"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="40"/>
       <c r="AU25" s="41"/>
       <c r="AV25" s="41"/>
       <c r="AW25" s="41"/>
@@ -3933,7 +3933,7 @@
       <c r="CK25" s="12"/>
     </row>
     <row r="26" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B26" s="98"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="54" t="s">
         <v>34</v>
       </c>
@@ -3976,22 +3976,22 @@
       <c r="AJ26" s="10"/>
       <c r="AK26" s="10"/>
       <c r="AL26" s="10"/>
-      <c r="AM26" s="69"/>
-      <c r="AN26" s="70"/>
-      <c r="AO26" s="83"/>
-      <c r="AP26" s="69"/>
-      <c r="AQ26" s="69"/>
-      <c r="AR26" s="69"/>
-      <c r="AS26" s="69"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="27"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
       <c r="AT26" s="69"/>
       <c r="AU26" s="70"/>
-      <c r="AV26" s="41"/>
-      <c r="AW26" s="41"/>
-      <c r="AX26" s="41"/>
-      <c r="AY26" s="41"/>
-      <c r="AZ26" s="41"/>
-      <c r="BA26" s="43"/>
-      <c r="BB26" s="43"/>
+      <c r="AV26" s="83"/>
+      <c r="AW26" s="69"/>
+      <c r="AX26" s="69"/>
+      <c r="AY26" s="69"/>
+      <c r="AZ26" s="69"/>
+      <c r="BA26" s="69"/>
+      <c r="BB26" s="70"/>
       <c r="BC26" s="41"/>
       <c r="BD26" s="41"/>
       <c r="BE26" s="41"/>
@@ -4029,7 +4029,7 @@
       <c r="CK26" s="12"/>
     </row>
     <row r="27" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B27" s="98"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="54" t="s">
         <v>27</v>
       </c>
@@ -4072,22 +4072,22 @@
       <c r="AJ27" s="10"/>
       <c r="AK27" s="10"/>
       <c r="AL27" s="10"/>
-      <c r="AM27" s="88"/>
-      <c r="AN27" s="89"/>
-      <c r="AO27" s="90"/>
-      <c r="AP27" s="88"/>
-      <c r="AQ27" s="88"/>
-      <c r="AR27" s="88"/>
-      <c r="AS27" s="88"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="27"/>
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
       <c r="AT27" s="88"/>
       <c r="AU27" s="89"/>
-      <c r="AV27" s="68"/>
-      <c r="AW27" s="68"/>
-      <c r="AX27" s="68"/>
-      <c r="AY27" s="68"/>
-      <c r="AZ27" s="68"/>
-      <c r="BA27" s="69"/>
-      <c r="BB27" s="70"/>
+      <c r="AV27" s="90"/>
+      <c r="AW27" s="88"/>
+      <c r="AX27" s="88"/>
+      <c r="AY27" s="88"/>
+      <c r="AZ27" s="88"/>
+      <c r="BA27" s="88"/>
+      <c r="BB27" s="89"/>
       <c r="BC27" s="68"/>
       <c r="BD27" s="68"/>
       <c r="BE27" s="68"/>
@@ -4125,7 +4125,7 @@
       <c r="CK27" s="12"/>
     </row>
     <row r="28" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B28" s="98"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="54" t="s">
         <v>25</v>
       </c>
@@ -4175,14 +4175,14 @@
       <c r="AQ28" s="10"/>
       <c r="AR28" s="10"/>
       <c r="AS28" s="10"/>
-      <c r="AT28" s="40"/>
-      <c r="AU28" s="41"/>
-      <c r="AV28" s="41"/>
-      <c r="AW28" s="41"/>
-      <c r="AX28" s="41"/>
-      <c r="AY28" s="41"/>
-      <c r="AZ28" s="41"/>
-      <c r="BA28" s="41"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="27"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="10"/>
+      <c r="AY28" s="10"/>
+      <c r="AZ28" s="10"/>
+      <c r="BA28" s="40"/>
       <c r="BB28" s="41"/>
       <c r="BC28" s="41"/>
       <c r="BD28" s="41"/>
@@ -4221,7 +4221,7 @@
       <c r="CK28" s="12"/>
     </row>
     <row r="29" spans="2:89" ht="26.4" customHeight="1" thickBot="1">
-      <c r="B29" s="99"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="55" t="s">
         <v>26</v>
       </c>
@@ -4407,6 +4407,13 @@
     <row r="115" ht="26.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="BQ3:BW3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="BX3:CD3"/>
     <mergeCell ref="CE3:CK3"/>
     <mergeCell ref="F3:L3"/>
@@ -4418,13 +4425,6 @@
     <mergeCell ref="AV3:BB3"/>
     <mergeCell ref="BC3:BI3"/>
     <mergeCell ref="BJ3:BP3"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="BQ3:BW3"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="25" orientation="landscape" r:id="rId1"/>

--- a/Diagrams/gantt1.xlsx
+++ b/Diagrams/gantt1.xlsx
@@ -187,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,8 +322,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -504,19 +516,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -764,7 +763,7 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -795,129 +794,110 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="16" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="14" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="15" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="18" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="19" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="20" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="18" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="24" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="23" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="11" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="13" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="15" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="14" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="18" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="22" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="12" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="13" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="14" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="15" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="16" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="17" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="26" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="25" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="16" fontId="3" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="12" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="12" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="15" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="22" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="21" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="14" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="15" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="15" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="22" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="21" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="12" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="22" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="21" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="13" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="3" fillId="14" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="14" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="14" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="21" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="37" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="20" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="36" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -936,16 +916,25 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -964,6 +953,23 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="24" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="34" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Cor1" xfId="1" builtinId="29"/>
@@ -1262,25 +1268,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CK115"/>
+  <dimension ref="A1:CL115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BA6" sqref="BA6"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="52.6640625" customWidth="1"/>
-    <col min="4" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="89" width="4.33203125" customWidth="1"/>
-    <col min="90" max="103" width="3.109375" customWidth="1"/>
-    <col min="104" max="162" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="0.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" customWidth="1"/>
+    <col min="5" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="90" width="4.33203125" customWidth="1"/>
+    <col min="91" max="104" width="3.109375" customWidth="1"/>
+    <col min="105" max="163" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" ht="16.5" customHeight="1"/>
-    <row r="2" spans="1:89" ht="20.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:90" ht="16.5" customHeight="1"/>
+    <row r="2" spans="1:90" ht="20.25" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1357,857 +1364,863 @@
       <c r="BV2" s="1"/>
       <c r="BW2" s="1"/>
       <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
     </row>
-    <row r="3" spans="1:89" ht="26.4" customHeight="1">
+    <row r="3" spans="1:90" ht="26.4" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="110" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="F3" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="100">
+      <c r="G3" s="111">
         <v>44494</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="97">
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="102">
         <v>44501</v>
       </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="97">
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="102">
         <v>44508</v>
       </c>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="97">
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="102">
         <v>44515</v>
       </c>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="97">
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="104"/>
+      <c r="AI3" s="102">
         <v>44522</v>
       </c>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="98"/>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="97">
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="103"/>
+      <c r="AN3" s="103"/>
+      <c r="AO3" s="104"/>
+      <c r="AP3" s="102">
         <v>44529</v>
       </c>
-      <c r="AP3" s="98"/>
-      <c r="AQ3" s="98"/>
-      <c r="AR3" s="98"/>
-      <c r="AS3" s="98"/>
-      <c r="AT3" s="98"/>
-      <c r="AU3" s="99"/>
-      <c r="AV3" s="97">
+      <c r="AQ3" s="103"/>
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="103"/>
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="104"/>
+      <c r="AW3" s="102">
         <v>44536</v>
       </c>
-      <c r="AW3" s="98"/>
-      <c r="AX3" s="98"/>
-      <c r="AY3" s="98"/>
-      <c r="AZ3" s="98"/>
-      <c r="BA3" s="98"/>
-      <c r="BB3" s="99"/>
-      <c r="BC3" s="97">
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="103"/>
+      <c r="BC3" s="104"/>
+      <c r="BD3" s="102">
         <v>44543</v>
       </c>
-      <c r="BD3" s="98"/>
-      <c r="BE3" s="98"/>
-      <c r="BF3" s="98"/>
-      <c r="BG3" s="98"/>
-      <c r="BH3" s="98"/>
-      <c r="BI3" s="99"/>
-      <c r="BJ3" s="97">
+      <c r="BE3" s="103"/>
+      <c r="BF3" s="103"/>
+      <c r="BG3" s="103"/>
+      <c r="BH3" s="103"/>
+      <c r="BI3" s="103"/>
+      <c r="BJ3" s="104"/>
+      <c r="BK3" s="102">
         <v>44550</v>
       </c>
-      <c r="BK3" s="98"/>
-      <c r="BL3" s="98"/>
-      <c r="BM3" s="98"/>
-      <c r="BN3" s="98"/>
-      <c r="BO3" s="98"/>
-      <c r="BP3" s="99"/>
-      <c r="BQ3" s="97">
+      <c r="BL3" s="103"/>
+      <c r="BM3" s="103"/>
+      <c r="BN3" s="103"/>
+      <c r="BO3" s="103"/>
+      <c r="BP3" s="103"/>
+      <c r="BQ3" s="104"/>
+      <c r="BR3" s="102">
         <v>44557</v>
       </c>
-      <c r="BR3" s="98"/>
-      <c r="BS3" s="98"/>
-      <c r="BT3" s="98"/>
-      <c r="BU3" s="98"/>
-      <c r="BV3" s="98"/>
-      <c r="BW3" s="99"/>
-      <c r="BX3" s="97">
+      <c r="BS3" s="103"/>
+      <c r="BT3" s="103"/>
+      <c r="BU3" s="103"/>
+      <c r="BV3" s="103"/>
+      <c r="BW3" s="103"/>
+      <c r="BX3" s="104"/>
+      <c r="BY3" s="102">
         <v>44564</v>
       </c>
-      <c r="BY3" s="98"/>
-      <c r="BZ3" s="98"/>
-      <c r="CA3" s="98"/>
-      <c r="CB3" s="98"/>
-      <c r="CC3" s="98"/>
-      <c r="CD3" s="99"/>
-      <c r="CE3" s="97">
+      <c r="BZ3" s="103"/>
+      <c r="CA3" s="103"/>
+      <c r="CB3" s="103"/>
+      <c r="CC3" s="103"/>
+      <c r="CD3" s="103"/>
+      <c r="CE3" s="104"/>
+      <c r="CF3" s="102">
         <v>44571</v>
       </c>
-      <c r="CF3" s="98"/>
-      <c r="CG3" s="98"/>
-      <c r="CH3" s="98"/>
-      <c r="CI3" s="98"/>
-      <c r="CJ3" s="98"/>
-      <c r="CK3" s="99"/>
+      <c r="CG3" s="103"/>
+      <c r="CH3" s="103"/>
+      <c r="CI3" s="103"/>
+      <c r="CJ3" s="103"/>
+      <c r="CK3" s="103"/>
+      <c r="CL3" s="104"/>
     </row>
-    <row r="4" spans="1:89" ht="26.4" customHeight="1">
+    <row r="4" spans="1:90" ht="26.4" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="6">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="6">
         <v>25</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>26</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>27</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>28</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>29</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>30</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
         <v>31</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>1</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>2</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>3</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="2">
         <v>4</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>5</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>6</v>
       </c>
-      <c r="S4" s="7">
+      <c r="T4" s="7">
         <v>7</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="2">
         <v>8</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <v>9</v>
       </c>
-      <c r="V4" s="2">
+      <c r="W4" s="2">
         <v>10</v>
       </c>
-      <c r="W4" s="2">
+      <c r="X4" s="2">
         <v>11</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
         <v>12</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Z4" s="3">
         <v>13</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="AA4" s="7">
         <v>14</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AB4" s="2">
         <v>15</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AC4" s="2">
         <v>16</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AD4" s="2">
         <v>17</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AE4" s="2">
         <v>18</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AF4" s="2">
         <v>19</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AG4" s="3">
         <v>20</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AH4" s="7">
         <v>21</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AI4" s="2">
         <v>22</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AJ4" s="2">
         <v>23</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AK4" s="2">
         <v>24</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AL4" s="2">
         <v>25</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AM4" s="2">
         <v>26</v>
       </c>
-      <c r="AM4" s="3">
+      <c r="AN4" s="3">
         <v>27</v>
       </c>
-      <c r="AN4" s="7">
+      <c r="AO4" s="7">
         <v>28</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AP4" s="2">
         <v>29</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AQ4" s="2">
         <v>30</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AR4" s="2">
         <v>1</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AS4" s="2">
         <v>2</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AT4" s="2">
         <v>3</v>
       </c>
-      <c r="AT4" s="3">
+      <c r="AU4" s="3">
         <v>4</v>
       </c>
-      <c r="AU4" s="7">
+      <c r="AV4" s="7">
         <v>5</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AW4" s="2">
         <v>6</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="AX4" s="2">
         <v>7</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AY4" s="2">
         <v>8</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AZ4" s="2">
         <v>9</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="BA4" s="2">
         <v>10</v>
       </c>
-      <c r="BA4" s="3">
+      <c r="BB4" s="3">
         <v>11</v>
       </c>
-      <c r="BB4" s="7">
+      <c r="BC4" s="7">
         <v>12</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BD4" s="2">
         <v>13</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BE4" s="2">
         <v>14</v>
       </c>
-      <c r="BE4" s="2">
+      <c r="BF4" s="2">
         <v>15</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BG4" s="2">
         <v>16</v>
       </c>
-      <c r="BG4" s="2">
+      <c r="BH4" s="2">
         <v>17</v>
       </c>
-      <c r="BH4" s="3">
+      <c r="BI4" s="3">
         <v>18</v>
       </c>
-      <c r="BI4" s="7">
+      <c r="BJ4" s="7">
         <v>19</v>
       </c>
-      <c r="BJ4" s="2">
+      <c r="BK4" s="2">
         <v>20</v>
       </c>
-      <c r="BK4" s="2">
+      <c r="BL4" s="2">
         <v>21</v>
       </c>
-      <c r="BL4" s="2">
+      <c r="BM4" s="2">
         <v>22</v>
       </c>
-      <c r="BM4" s="2">
+      <c r="BN4" s="2">
         <v>23</v>
       </c>
-      <c r="BN4" s="2">
+      <c r="BO4" s="2">
         <v>24</v>
       </c>
-      <c r="BO4" s="3">
+      <c r="BP4" s="3">
         <v>25</v>
       </c>
-      <c r="BP4" s="7">
+      <c r="BQ4" s="7">
         <v>26</v>
       </c>
-      <c r="BQ4" s="2">
+      <c r="BR4" s="2">
         <v>27</v>
       </c>
-      <c r="BR4" s="2">
+      <c r="BS4" s="2">
         <v>28</v>
       </c>
-      <c r="BS4" s="2">
+      <c r="BT4" s="2">
         <v>29</v>
       </c>
-      <c r="BT4" s="2">
+      <c r="BU4" s="2">
         <v>30</v>
       </c>
-      <c r="BU4" s="2">
+      <c r="BV4" s="2">
         <v>31</v>
       </c>
-      <c r="BV4" s="3">
+      <c r="BW4" s="3">
         <v>1</v>
       </c>
-      <c r="BW4" s="7">
+      <c r="BX4" s="7">
         <v>2</v>
       </c>
-      <c r="BX4" s="2">
+      <c r="BY4" s="2">
         <v>3</v>
       </c>
-      <c r="BY4" s="2">
+      <c r="BZ4" s="2">
         <v>4</v>
       </c>
-      <c r="BZ4" s="2">
+      <c r="CA4" s="2">
         <v>5</v>
       </c>
-      <c r="CA4" s="2">
+      <c r="CB4" s="2">
         <v>6</v>
       </c>
-      <c r="CB4" s="2">
+      <c r="CC4" s="2">
         <v>7</v>
       </c>
-      <c r="CC4" s="3">
+      <c r="CD4" s="3">
         <v>8</v>
       </c>
-      <c r="CD4" s="7">
+      <c r="CE4" s="7">
         <v>9</v>
       </c>
-      <c r="CE4" s="2">
+      <c r="CF4" s="2">
         <v>10</v>
       </c>
-      <c r="CF4" s="2">
+      <c r="CG4" s="2">
         <v>11</v>
       </c>
-      <c r="CG4" s="2">
+      <c r="CH4" s="2">
         <v>12</v>
       </c>
-      <c r="CH4" s="2">
+      <c r="CI4" s="2">
         <v>13</v>
       </c>
-      <c r="CI4" s="2">
+      <c r="CJ4" s="2">
         <v>14</v>
       </c>
-      <c r="CJ4" s="3">
+      <c r="CK4" s="3">
         <v>15</v>
       </c>
-      <c r="CK4" s="7">
+      <c r="CL4" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:89" ht="18.75" customHeight="1" thickBot="1">
+    <row r="5" spans="1:90" ht="18.75" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="6" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z5" s="7" t="s">
+      <c r="AA5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AE5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AG5" s="7" t="s">
+      <c r="AH5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AI5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AK5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AL5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AM5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AN5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AN5" s="7" t="s">
+      <c r="AO5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AO5" s="2" t="s">
+      <c r="AP5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AQ5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AQ5" s="2" t="s">
+      <c r="AR5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AR5" s="2" t="s">
+      <c r="AS5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AS5" s="2" t="s">
+      <c r="AT5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AU5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AU5" s="7" t="s">
+      <c r="AV5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AV5" s="2" t="s">
+      <c r="AW5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AW5" s="2" t="s">
+      <c r="AX5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AX5" s="2" t="s">
+      <c r="AY5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AY5" s="2" t="s">
+      <c r="AZ5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AZ5" s="2" t="s">
+      <c r="BA5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BA5" s="3" t="s">
+      <c r="BB5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BB5" s="7" t="s">
+      <c r="BC5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="BC5" s="2" t="s">
+      <c r="BD5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BD5" s="2" t="s">
+      <c r="BE5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BE5" s="2" t="s">
+      <c r="BF5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BF5" s="2" t="s">
+      <c r="BG5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BG5" s="2" t="s">
+      <c r="BH5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BH5" s="3" t="s">
+      <c r="BI5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BI5" s="7" t="s">
+      <c r="BJ5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="BJ5" s="2" t="s">
+      <c r="BK5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BK5" s="2" t="s">
+      <c r="BL5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BL5" s="2" t="s">
+      <c r="BM5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BM5" s="2" t="s">
+      <c r="BN5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BN5" s="2" t="s">
+      <c r="BO5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BP5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BP5" s="7" t="s">
+      <c r="BQ5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="BQ5" s="2" t="s">
+      <c r="BR5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BR5" s="2" t="s">
+      <c r="BS5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BS5" s="2" t="s">
+      <c r="BT5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BT5" s="2" t="s">
+      <c r="BU5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BU5" s="2" t="s">
+      <c r="BV5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BV5" s="3" t="s">
+      <c r="BW5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BW5" s="7" t="s">
+      <c r="BX5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="BX5" s="2" t="s">
+      <c r="BY5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BY5" s="2" t="s">
+      <c r="BZ5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BZ5" s="2" t="s">
+      <c r="CA5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="CA5" s="2" t="s">
+      <c r="CB5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="CB5" s="2" t="s">
+      <c r="CC5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="CC5" s="3" t="s">
+      <c r="CD5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="CD5" s="7" t="s">
+      <c r="CE5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="CE5" s="2" t="s">
+      <c r="CF5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="CF5" s="2" t="s">
+      <c r="CG5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="CG5" s="2" t="s">
+      <c r="CH5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="CH5" s="2" t="s">
+      <c r="CI5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="CI5" s="2" t="s">
+      <c r="CJ5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="CJ5" s="3" t="s">
+      <c r="CK5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="CK5" s="7" t="s">
+      <c r="CL5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:89" ht="26.4" customHeight="1">
+    <row r="6" spans="1:90" ht="26.4" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="D6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="56">
+      <c r="E6" s="51">
         <v>44494</v>
       </c>
-      <c r="E6" s="57">
+      <c r="F6" s="52">
         <v>44497</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="23"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="8"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="28"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="28"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="28"/>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
       <c r="AM6" s="8"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="29"/>
+      <c r="AP6" s="28"/>
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
       <c r="AT6" s="8"/>
-      <c r="AU6" s="29"/>
-      <c r="AV6" s="28"/>
-      <c r="AW6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="29"/>
+      <c r="AW6" s="28"/>
       <c r="AX6" s="8"/>
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
       <c r="BA6" s="8"/>
-      <c r="BB6" s="29"/>
-      <c r="BC6" s="28"/>
-      <c r="BD6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="29"/>
+      <c r="BD6" s="28"/>
       <c r="BE6" s="8"/>
       <c r="BF6" s="8"/>
       <c r="BG6" s="8"/>
       <c r="BH6" s="8"/>
-      <c r="BI6" s="29"/>
-      <c r="BJ6" s="28"/>
-      <c r="BK6" s="8"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="29"/>
+      <c r="BK6" s="28"/>
       <c r="BL6" s="8"/>
       <c r="BM6" s="8"/>
       <c r="BN6" s="8"/>
       <c r="BO6" s="8"/>
-      <c r="BP6" s="29"/>
-      <c r="BQ6" s="28"/>
-      <c r="BR6" s="8"/>
+      <c r="BP6" s="8"/>
+      <c r="BQ6" s="29"/>
+      <c r="BR6" s="28"/>
       <c r="BS6" s="8"/>
       <c r="BT6" s="8"/>
       <c r="BU6" s="8"/>
       <c r="BV6" s="8"/>
-      <c r="BW6" s="29"/>
-      <c r="BX6" s="28"/>
-      <c r="BY6" s="8"/>
+      <c r="BW6" s="8"/>
+      <c r="BX6" s="29"/>
+      <c r="BY6" s="28"/>
       <c r="BZ6" s="8"/>
       <c r="CA6" s="8"/>
       <c r="CB6" s="8"/>
       <c r="CC6" s="8"/>
-      <c r="CD6" s="29"/>
-      <c r="CE6" s="28"/>
-      <c r="CF6" s="8"/>
+      <c r="CD6" s="8"/>
+      <c r="CE6" s="29"/>
+      <c r="CF6" s="28"/>
       <c r="CG6" s="8"/>
       <c r="CH6" s="8"/>
       <c r="CI6" s="8"/>
       <c r="CJ6" s="8"/>
-      <c r="CK6" s="9"/>
+      <c r="CK6" s="8"/>
+      <c r="CL6" s="9"/>
     </row>
-    <row r="7" spans="1:89" ht="26.25" customHeight="1">
+    <row r="7" spans="1:90" ht="26.25" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="51" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58">
+      <c r="E7" s="53">
         <v>44496</v>
       </c>
-      <c r="E7" s="59">
+      <c r="F7" s="54">
         <v>44503</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="11"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="27"/>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="27"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="27"/>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
       <c r="AL7" s="10"/>
       <c r="AM7" s="10"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="27"/>
-      <c r="AP7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="27"/>
       <c r="AQ7" s="10"/>
       <c r="AR7" s="10"/>
       <c r="AS7" s="10"/>
       <c r="AT7" s="10"/>
-      <c r="AU7" s="26"/>
-      <c r="AV7" s="27"/>
-      <c r="AW7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="26"/>
+      <c r="AW7" s="27"/>
       <c r="AX7" s="10"/>
       <c r="AY7" s="10"/>
       <c r="AZ7" s="10"/>
       <c r="BA7" s="10"/>
-      <c r="BB7" s="26"/>
-      <c r="BC7" s="27"/>
-      <c r="BD7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="26"/>
+      <c r="BD7" s="27"/>
       <c r="BE7" s="10"/>
       <c r="BF7" s="10"/>
       <c r="BG7" s="10"/>
       <c r="BH7" s="10"/>
-      <c r="BI7" s="26"/>
-      <c r="BJ7" s="27"/>
-      <c r="BK7" s="10"/>
+      <c r="BI7" s="10"/>
+      <c r="BJ7" s="26"/>
+      <c r="BK7" s="27"/>
       <c r="BL7" s="10"/>
       <c r="BM7" s="10"/>
       <c r="BN7" s="10"/>
       <c r="BO7" s="10"/>
-      <c r="BP7" s="26"/>
-      <c r="BQ7" s="27"/>
-      <c r="BR7" s="10"/>
+      <c r="BP7" s="10"/>
+      <c r="BQ7" s="26"/>
+      <c r="BR7" s="27"/>
       <c r="BS7" s="10"/>
       <c r="BT7" s="10"/>
       <c r="BU7" s="10"/>
       <c r="BV7" s="10"/>
-      <c r="BW7" s="26"/>
-      <c r="BX7" s="27"/>
-      <c r="BY7" s="10"/>
+      <c r="BW7" s="10"/>
+      <c r="BX7" s="26"/>
+      <c r="BY7" s="27"/>
       <c r="BZ7" s="10"/>
       <c r="CA7" s="10"/>
       <c r="CB7" s="10"/>
       <c r="CC7" s="10"/>
-      <c r="CD7" s="26"/>
-      <c r="CE7" s="27"/>
-      <c r="CF7" s="10"/>
+      <c r="CD7" s="10"/>
+      <c r="CE7" s="26"/>
+      <c r="CF7" s="27"/>
       <c r="CG7" s="10"/>
       <c r="CH7" s="10"/>
       <c r="CI7" s="10"/>
       <c r="CJ7" s="10"/>
-      <c r="CK7" s="12"/>
+      <c r="CK7" s="10"/>
+      <c r="CL7" s="12"/>
     </row>
-    <row r="8" spans="1:89" ht="26.4" customHeight="1" thickBot="1">
+    <row r="8" spans="1:90" ht="26.4" customHeight="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="51" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="58">
+      <c r="E8" s="53">
         <v>44498</v>
       </c>
-      <c r="E8" s="59">
+      <c r="F8" s="54">
         <v>44208</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="14"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="57"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -2282,129 +2295,131 @@
       <c r="CD8" s="14"/>
       <c r="CE8" s="14"/>
       <c r="CF8" s="14"/>
-      <c r="CG8" s="15"/>
-      <c r="CH8" s="10"/>
+      <c r="CG8" s="14"/>
+      <c r="CH8" s="15"/>
       <c r="CI8" s="10"/>
       <c r="CJ8" s="10"/>
-      <c r="CK8" s="12"/>
+      <c r="CK8" s="10"/>
+      <c r="CL8" s="12"/>
     </row>
-    <row r="9" spans="1:89" ht="26.4" customHeight="1">
+    <row r="9" spans="1:90" ht="26.4" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="D9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="60">
+      <c r="E9" s="55">
         <v>44498</v>
       </c>
-      <c r="E9" s="61">
+      <c r="F9" s="56">
         <v>44503</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="10"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="67"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="27"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="27"/>
       <c r="AJ9" s="10"/>
       <c r="AK9" s="10"/>
       <c r="AL9" s="10"/>
       <c r="AM9" s="10"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="27"/>
-      <c r="AP9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="27"/>
       <c r="AQ9" s="10"/>
       <c r="AR9" s="10"/>
       <c r="AS9" s="10"/>
       <c r="AT9" s="10"/>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="27"/>
       <c r="AX9" s="10"/>
       <c r="AY9" s="10"/>
       <c r="AZ9" s="10"/>
       <c r="BA9" s="10"/>
-      <c r="BB9" s="26"/>
-      <c r="BC9" s="27"/>
-      <c r="BD9" s="10"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="26"/>
+      <c r="BD9" s="27"/>
       <c r="BE9" s="10"/>
       <c r="BF9" s="10"/>
       <c r="BG9" s="10"/>
       <c r="BH9" s="10"/>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="27"/>
-      <c r="BK9" s="10"/>
+      <c r="BI9" s="10"/>
+      <c r="BJ9" s="26"/>
+      <c r="BK9" s="27"/>
       <c r="BL9" s="10"/>
       <c r="BM9" s="10"/>
       <c r="BN9" s="10"/>
       <c r="BO9" s="10"/>
-      <c r="BP9" s="26"/>
-      <c r="BQ9" s="27"/>
-      <c r="BR9" s="10"/>
+      <c r="BP9" s="10"/>
+      <c r="BQ9" s="26"/>
+      <c r="BR9" s="27"/>
       <c r="BS9" s="10"/>
       <c r="BT9" s="10"/>
       <c r="BU9" s="10"/>
       <c r="BV9" s="10"/>
-      <c r="BW9" s="26"/>
-      <c r="BX9" s="27"/>
-      <c r="BY9" s="10"/>
+      <c r="BW9" s="10"/>
+      <c r="BX9" s="26"/>
+      <c r="BY9" s="27"/>
       <c r="BZ9" s="10"/>
       <c r="CA9" s="10"/>
       <c r="CB9" s="10"/>
       <c r="CC9" s="10"/>
-      <c r="CD9" s="26"/>
-      <c r="CE9" s="27"/>
-      <c r="CF9" s="10"/>
+      <c r="CD9" s="10"/>
+      <c r="CE9" s="26"/>
+      <c r="CF9" s="27"/>
       <c r="CG9" s="10"/>
       <c r="CH9" s="10"/>
       <c r="CI9" s="10"/>
       <c r="CJ9" s="10"/>
-      <c r="CK9" s="12"/>
+      <c r="CK9" s="10"/>
+      <c r="CL9" s="12"/>
     </row>
-    <row r="10" spans="1:89" ht="26.4" customHeight="1">
+    <row r="10" spans="1:90" ht="26.4" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="52" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="60">
+      <c r="E10" s="55">
         <v>44498</v>
       </c>
-      <c r="E10" s="61">
+      <c r="F10" s="56">
         <v>44503</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
@@ -2412,193 +2427,195 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="10"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="18"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="27"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="27"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
       <c r="AL10" s="10"/>
       <c r="AM10" s="10"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="27"/>
-      <c r="AP10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="27"/>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="10"/>
       <c r="AS10" s="10"/>
       <c r="AT10" s="10"/>
-      <c r="AU10" s="26"/>
-      <c r="AV10" s="27"/>
-      <c r="AW10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="27"/>
       <c r="AX10" s="10"/>
       <c r="AY10" s="10"/>
       <c r="AZ10" s="10"/>
       <c r="BA10" s="10"/>
-      <c r="BB10" s="26"/>
-      <c r="BC10" s="27"/>
-      <c r="BD10" s="10"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="26"/>
+      <c r="BD10" s="27"/>
       <c r="BE10" s="10"/>
       <c r="BF10" s="10"/>
       <c r="BG10" s="10"/>
       <c r="BH10" s="10"/>
-      <c r="BI10" s="26"/>
-      <c r="BJ10" s="27"/>
-      <c r="BK10" s="10"/>
+      <c r="BI10" s="10"/>
+      <c r="BJ10" s="26"/>
+      <c r="BK10" s="27"/>
       <c r="BL10" s="10"/>
       <c r="BM10" s="10"/>
       <c r="BN10" s="10"/>
       <c r="BO10" s="10"/>
-      <c r="BP10" s="26"/>
-      <c r="BQ10" s="27"/>
-      <c r="BR10" s="10"/>
+      <c r="BP10" s="10"/>
+      <c r="BQ10" s="26"/>
+      <c r="BR10" s="27"/>
       <c r="BS10" s="10"/>
       <c r="BT10" s="10"/>
       <c r="BU10" s="10"/>
       <c r="BV10" s="10"/>
-      <c r="BW10" s="26"/>
-      <c r="BX10" s="27"/>
-      <c r="BY10" s="10"/>
+      <c r="BW10" s="10"/>
+      <c r="BX10" s="26"/>
+      <c r="BY10" s="27"/>
       <c r="BZ10" s="10"/>
       <c r="CA10" s="10"/>
       <c r="CB10" s="10"/>
       <c r="CC10" s="10"/>
-      <c r="CD10" s="26"/>
-      <c r="CE10" s="27"/>
-      <c r="CF10" s="10"/>
+      <c r="CD10" s="10"/>
+      <c r="CE10" s="26"/>
+      <c r="CF10" s="27"/>
       <c r="CG10" s="10"/>
       <c r="CH10" s="10"/>
       <c r="CI10" s="10"/>
       <c r="CJ10" s="10"/>
-      <c r="CK10" s="12"/>
+      <c r="CK10" s="10"/>
+      <c r="CL10" s="12"/>
     </row>
-    <row r="11" spans="1:89" ht="26.4" customHeight="1">
+    <row r="11" spans="1:90" ht="26.4" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="52" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="60">
+      <c r="E11" s="55">
         <v>44498</v>
       </c>
-      <c r="E11" s="61">
+      <c r="F11" s="56">
         <v>44503</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="17"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="17"/>
-      <c r="M11" s="20"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="17"/>
       <c r="R11" s="20"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="10"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="62"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="27"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="27"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
       <c r="AM11" s="10"/>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="27"/>
       <c r="AQ11" s="10"/>
       <c r="AR11" s="10"/>
       <c r="AS11" s="10"/>
       <c r="AT11" s="10"/>
-      <c r="AU11" s="26"/>
-      <c r="AV11" s="27"/>
-      <c r="AW11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="26"/>
+      <c r="AW11" s="27"/>
       <c r="AX11" s="10"/>
       <c r="AY11" s="10"/>
       <c r="AZ11" s="10"/>
       <c r="BA11" s="10"/>
-      <c r="BB11" s="26"/>
-      <c r="BC11" s="27"/>
-      <c r="BD11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="26"/>
+      <c r="BD11" s="27"/>
       <c r="BE11" s="10"/>
       <c r="BF11" s="10"/>
       <c r="BG11" s="10"/>
       <c r="BH11" s="10"/>
-      <c r="BI11" s="26"/>
-      <c r="BJ11" s="27"/>
-      <c r="BK11" s="10"/>
+      <c r="BI11" s="10"/>
+      <c r="BJ11" s="26"/>
+      <c r="BK11" s="27"/>
       <c r="BL11" s="10"/>
       <c r="BM11" s="10"/>
       <c r="BN11" s="10"/>
       <c r="BO11" s="10"/>
-      <c r="BP11" s="26"/>
-      <c r="BQ11" s="27"/>
-      <c r="BR11" s="10"/>
+      <c r="BP11" s="10"/>
+      <c r="BQ11" s="26"/>
+      <c r="BR11" s="27"/>
       <c r="BS11" s="10"/>
       <c r="BT11" s="10"/>
       <c r="BU11" s="10"/>
       <c r="BV11" s="10"/>
-      <c r="BW11" s="26"/>
-      <c r="BX11" s="27"/>
-      <c r="BY11" s="10"/>
+      <c r="BW11" s="10"/>
+      <c r="BX11" s="26"/>
+      <c r="BY11" s="27"/>
       <c r="BZ11" s="10"/>
       <c r="CA11" s="10"/>
       <c r="CB11" s="10"/>
       <c r="CC11" s="10"/>
-      <c r="CD11" s="26"/>
-      <c r="CE11" s="27"/>
-      <c r="CF11" s="10"/>
+      <c r="CD11" s="10"/>
+      <c r="CE11" s="26"/>
+      <c r="CF11" s="27"/>
       <c r="CG11" s="10"/>
       <c r="CH11" s="10"/>
       <c r="CI11" s="10"/>
       <c r="CJ11" s="10"/>
-      <c r="CK11" s="12"/>
+      <c r="CK11" s="10"/>
+      <c r="CL11" s="12"/>
     </row>
-    <row r="12" spans="1:89" ht="26.4" customHeight="1">
+    <row r="12" spans="1:90" ht="26.4" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="52" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="60">
+      <c r="E12" s="55">
         <v>44498</v>
       </c>
-      <c r="E12" s="61">
+      <c r="F12" s="56">
         <v>44503</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
@@ -2606,594 +2623,596 @@
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="10"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="89"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="27"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="27"/>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
       <c r="AL12" s="10"/>
       <c r="AM12" s="10"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="27"/>
-      <c r="AP12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="27"/>
       <c r="AQ12" s="10"/>
       <c r="AR12" s="10"/>
       <c r="AS12" s="10"/>
       <c r="AT12" s="10"/>
-      <c r="AU12" s="26"/>
-      <c r="AV12" s="27"/>
-      <c r="AW12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="26"/>
+      <c r="AW12" s="27"/>
       <c r="AX12" s="10"/>
       <c r="AY12" s="10"/>
       <c r="AZ12" s="10"/>
       <c r="BA12" s="10"/>
-      <c r="BB12" s="26"/>
-      <c r="BC12" s="27"/>
-      <c r="BD12" s="10"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="26"/>
+      <c r="BD12" s="27"/>
       <c r="BE12" s="10"/>
       <c r="BF12" s="10"/>
       <c r="BG12" s="10"/>
       <c r="BH12" s="10"/>
-      <c r="BI12" s="26"/>
-      <c r="BJ12" s="27"/>
-      <c r="BK12" s="10"/>
+      <c r="BI12" s="10"/>
+      <c r="BJ12" s="26"/>
+      <c r="BK12" s="27"/>
       <c r="BL12" s="10"/>
       <c r="BM12" s="10"/>
       <c r="BN12" s="10"/>
       <c r="BO12" s="10"/>
-      <c r="BP12" s="26"/>
-      <c r="BQ12" s="27"/>
-      <c r="BR12" s="10"/>
+      <c r="BP12" s="10"/>
+      <c r="BQ12" s="26"/>
+      <c r="BR12" s="27"/>
       <c r="BS12" s="10"/>
       <c r="BT12" s="10"/>
       <c r="BU12" s="10"/>
       <c r="BV12" s="10"/>
-      <c r="BW12" s="26"/>
-      <c r="BX12" s="27"/>
-      <c r="BY12" s="10"/>
+      <c r="BW12" s="10"/>
+      <c r="BX12" s="26"/>
+      <c r="BY12" s="27"/>
       <c r="BZ12" s="10"/>
       <c r="CA12" s="10"/>
       <c r="CB12" s="10"/>
       <c r="CC12" s="10"/>
-      <c r="CD12" s="26"/>
-      <c r="CE12" s="27"/>
-      <c r="CF12" s="10"/>
+      <c r="CD12" s="10"/>
+      <c r="CE12" s="26"/>
+      <c r="CF12" s="27"/>
       <c r="CG12" s="10"/>
       <c r="CH12" s="10"/>
       <c r="CI12" s="10"/>
       <c r="CJ12" s="10"/>
-      <c r="CK12" s="12"/>
+      <c r="CK12" s="10"/>
+      <c r="CL12" s="12"/>
     </row>
-    <row r="13" spans="1:89" ht="26.4" customHeight="1" thickBot="1">
+    <row r="13" spans="1:90" ht="26.4" customHeight="1" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="52" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="60">
+      <c r="E13" s="55">
         <v>44498</v>
       </c>
-      <c r="E13" s="61">
+      <c r="F13" s="56">
         <v>44510</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="86"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="17"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="73"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="10"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="27"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="27"/>
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
       <c r="AL13" s="10"/>
       <c r="AM13" s="10"/>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="27"/>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="10"/>
       <c r="AS13" s="10"/>
       <c r="AT13" s="10"/>
-      <c r="AU13" s="26"/>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="26"/>
+      <c r="AW13" s="27"/>
       <c r="AX13" s="10"/>
       <c r="AY13" s="10"/>
       <c r="AZ13" s="10"/>
       <c r="BA13" s="10"/>
-      <c r="BB13" s="26"/>
-      <c r="BC13" s="27"/>
-      <c r="BD13" s="10"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="26"/>
+      <c r="BD13" s="27"/>
       <c r="BE13" s="10"/>
       <c r="BF13" s="10"/>
       <c r="BG13" s="10"/>
       <c r="BH13" s="10"/>
-      <c r="BI13" s="26"/>
-      <c r="BJ13" s="27"/>
-      <c r="BK13" s="10"/>
+      <c r="BI13" s="10"/>
+      <c r="BJ13" s="26"/>
+      <c r="BK13" s="27"/>
       <c r="BL13" s="10"/>
       <c r="BM13" s="10"/>
       <c r="BN13" s="10"/>
       <c r="BO13" s="10"/>
-      <c r="BP13" s="26"/>
-      <c r="BQ13" s="27"/>
-      <c r="BR13" s="10"/>
+      <c r="BP13" s="10"/>
+      <c r="BQ13" s="26"/>
+      <c r="BR13" s="27"/>
       <c r="BS13" s="10"/>
       <c r="BT13" s="10"/>
       <c r="BU13" s="10"/>
       <c r="BV13" s="10"/>
-      <c r="BW13" s="26"/>
-      <c r="BX13" s="27"/>
-      <c r="BY13" s="10"/>
+      <c r="BW13" s="10"/>
+      <c r="BX13" s="26"/>
+      <c r="BY13" s="27"/>
       <c r="BZ13" s="10"/>
       <c r="CA13" s="10"/>
       <c r="CB13" s="10"/>
       <c r="CC13" s="10"/>
-      <c r="CD13" s="26"/>
-      <c r="CE13" s="27"/>
-      <c r="CF13" s="10"/>
+      <c r="CD13" s="10"/>
+      <c r="CE13" s="26"/>
+      <c r="CF13" s="27"/>
       <c r="CG13" s="10"/>
       <c r="CH13" s="10"/>
       <c r="CI13" s="10"/>
       <c r="CJ13" s="10"/>
-      <c r="CK13" s="12"/>
+      <c r="CK13" s="10"/>
+      <c r="CL13" s="12"/>
     </row>
-    <row r="14" spans="1:89" ht="26.4" customHeight="1">
+    <row r="14" spans="1:90" ht="26.4" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="D14" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="64">
+      <c r="E14" s="59">
         <v>44509</v>
       </c>
-      <c r="E14" s="65">
+      <c r="F14" s="60">
         <v>44512</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="39"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="32"/>
       <c r="W14" s="36"/>
       <c r="X14" s="35"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="10"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="26"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="26"/>
       <c r="AI14" s="10"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
       <c r="AL14" s="10"/>
       <c r="AM14" s="10"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="27"/>
       <c r="AQ14" s="10"/>
       <c r="AR14" s="10"/>
       <c r="AS14" s="10"/>
       <c r="AT14" s="10"/>
-      <c r="AU14" s="26"/>
-      <c r="AV14" s="27"/>
-      <c r="AW14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="26"/>
+      <c r="AW14" s="27"/>
       <c r="AX14" s="10"/>
       <c r="AY14" s="10"/>
       <c r="AZ14" s="10"/>
       <c r="BA14" s="10"/>
-      <c r="BB14" s="26"/>
-      <c r="BC14" s="27"/>
-      <c r="BD14" s="10"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="26"/>
+      <c r="BD14" s="27"/>
       <c r="BE14" s="10"/>
       <c r="BF14" s="10"/>
       <c r="BG14" s="10"/>
       <c r="BH14" s="10"/>
-      <c r="BI14" s="26"/>
-      <c r="BJ14" s="27"/>
-      <c r="BK14" s="10"/>
+      <c r="BI14" s="10"/>
+      <c r="BJ14" s="26"/>
+      <c r="BK14" s="27"/>
       <c r="BL14" s="10"/>
       <c r="BM14" s="10"/>
       <c r="BN14" s="10"/>
       <c r="BO14" s="10"/>
-      <c r="BP14" s="26"/>
-      <c r="BQ14" s="27"/>
-      <c r="BR14" s="10"/>
+      <c r="BP14" s="10"/>
+      <c r="BQ14" s="26"/>
+      <c r="BR14" s="27"/>
       <c r="BS14" s="10"/>
       <c r="BT14" s="10"/>
       <c r="BU14" s="10"/>
       <c r="BV14" s="10"/>
-      <c r="BW14" s="26"/>
-      <c r="BX14" s="27"/>
-      <c r="BY14" s="10"/>
+      <c r="BW14" s="10"/>
+      <c r="BX14" s="26"/>
+      <c r="BY14" s="27"/>
       <c r="BZ14" s="10"/>
       <c r="CA14" s="10"/>
       <c r="CB14" s="10"/>
       <c r="CC14" s="10"/>
-      <c r="CD14" s="26"/>
-      <c r="CE14" s="27"/>
-      <c r="CF14" s="10"/>
+      <c r="CD14" s="10"/>
+      <c r="CE14" s="26"/>
+      <c r="CF14" s="27"/>
       <c r="CG14" s="10"/>
       <c r="CH14" s="10"/>
       <c r="CI14" s="10"/>
       <c r="CJ14" s="10"/>
-      <c r="CK14" s="12"/>
+      <c r="CK14" s="10"/>
+      <c r="CL14" s="12"/>
     </row>
-    <row r="15" spans="1:89" ht="26.4" customHeight="1">
-      <c r="B15" s="105"/>
-      <c r="C15" s="53" t="s">
+    <row r="15" spans="1:90" ht="26.4" customHeight="1">
+      <c r="C15" s="94"/>
+      <c r="D15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="64">
+      <c r="E15" s="59">
         <v>44511</v>
       </c>
-      <c r="E15" s="64">
+      <c r="F15" s="59">
         <v>44518</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="27"/>
       <c r="V15" s="10"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="39"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="26"/>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="115"/>
+      <c r="AQ15" s="115"/>
+      <c r="AR15" s="115"/>
+      <c r="AS15" s="115"/>
+      <c r="AT15" s="115"/>
+      <c r="AU15" s="115"/>
+      <c r="AV15" s="116"/>
+      <c r="AW15" s="27"/>
       <c r="AX15" s="10"/>
       <c r="AY15" s="10"/>
       <c r="AZ15" s="10"/>
       <c r="BA15" s="10"/>
-      <c r="BB15" s="26"/>
-      <c r="BC15" s="27"/>
-      <c r="BD15" s="10"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="26"/>
+      <c r="BD15" s="27"/>
       <c r="BE15" s="10"/>
       <c r="BF15" s="10"/>
       <c r="BG15" s="10"/>
       <c r="BH15" s="10"/>
-      <c r="BI15" s="26"/>
-      <c r="BJ15" s="27"/>
-      <c r="BK15" s="10"/>
+      <c r="BI15" s="10"/>
+      <c r="BJ15" s="26"/>
+      <c r="BK15" s="27"/>
       <c r="BL15" s="10"/>
       <c r="BM15" s="10"/>
       <c r="BN15" s="10"/>
       <c r="BO15" s="10"/>
-      <c r="BP15" s="26"/>
-      <c r="BQ15" s="27"/>
-      <c r="BR15" s="10"/>
+      <c r="BP15" s="10"/>
+      <c r="BQ15" s="26"/>
+      <c r="BR15" s="27"/>
       <c r="BS15" s="10"/>
       <c r="BT15" s="10"/>
       <c r="BU15" s="10"/>
       <c r="BV15" s="10"/>
-      <c r="BW15" s="26"/>
-      <c r="BX15" s="27"/>
-      <c r="BY15" s="10"/>
+      <c r="BW15" s="10"/>
+      <c r="BX15" s="26"/>
+      <c r="BY15" s="27"/>
       <c r="BZ15" s="10"/>
       <c r="CA15" s="10"/>
       <c r="CB15" s="10"/>
       <c r="CC15" s="10"/>
-      <c r="CD15" s="26"/>
-      <c r="CE15" s="27"/>
-      <c r="CF15" s="10"/>
+      <c r="CD15" s="10"/>
+      <c r="CE15" s="26"/>
+      <c r="CF15" s="27"/>
       <c r="CG15" s="10"/>
       <c r="CH15" s="10"/>
       <c r="CI15" s="10"/>
       <c r="CJ15" s="10"/>
-      <c r="CK15" s="12"/>
+      <c r="CK15" s="10"/>
+      <c r="CL15" s="12"/>
     </row>
-    <row r="16" spans="1:89" ht="26.4" customHeight="1">
-      <c r="B16" s="105"/>
-      <c r="C16" s="53" t="s">
+    <row r="16" spans="1:90" ht="26.4" customHeight="1">
+      <c r="C16" s="94"/>
+      <c r="D16" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="64">
+      <c r="E16" s="59">
         <v>44511</v>
       </c>
-      <c r="E16" s="64">
+      <c r="F16" s="59">
         <v>44518</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="27"/>
       <c r="V16" s="10"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="39"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="26"/>
-      <c r="AV16" s="27"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="10"/>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="10"/>
-      <c r="BB16" s="26"/>
-      <c r="BC16" s="27"/>
-      <c r="BD16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="115"/>
+      <c r="AQ16" s="115"/>
+      <c r="AR16" s="115"/>
+      <c r="AS16" s="115"/>
+      <c r="AT16" s="115"/>
+      <c r="AU16" s="115"/>
+      <c r="AV16" s="115"/>
+      <c r="AW16" s="115"/>
+      <c r="AX16" s="115"/>
+      <c r="AY16" s="115"/>
+      <c r="AZ16" s="115"/>
+      <c r="BA16" s="115"/>
+      <c r="BB16" s="115"/>
+      <c r="BC16" s="116"/>
+      <c r="BD16" s="27"/>
       <c r="BE16" s="10"/>
       <c r="BF16" s="10"/>
       <c r="BG16" s="10"/>
       <c r="BH16" s="10"/>
-      <c r="BI16" s="26"/>
-      <c r="BJ16" s="27"/>
-      <c r="BK16" s="10"/>
+      <c r="BI16" s="10"/>
+      <c r="BJ16" s="26"/>
+      <c r="BK16" s="27"/>
       <c r="BL16" s="10"/>
       <c r="BM16" s="10"/>
       <c r="BN16" s="10"/>
       <c r="BO16" s="10"/>
-      <c r="BP16" s="26"/>
-      <c r="BQ16" s="27"/>
-      <c r="BR16" s="10"/>
+      <c r="BP16" s="10"/>
+      <c r="BQ16" s="26"/>
+      <c r="BR16" s="27"/>
       <c r="BS16" s="10"/>
       <c r="BT16" s="10"/>
       <c r="BU16" s="10"/>
       <c r="BV16" s="10"/>
-      <c r="BW16" s="26"/>
-      <c r="BX16" s="27"/>
-      <c r="BY16" s="10"/>
+      <c r="BW16" s="10"/>
+      <c r="BX16" s="26"/>
+      <c r="BY16" s="27"/>
       <c r="BZ16" s="10"/>
       <c r="CA16" s="10"/>
       <c r="CB16" s="10"/>
       <c r="CC16" s="10"/>
-      <c r="CD16" s="26"/>
-      <c r="CE16" s="27"/>
-      <c r="CF16" s="10"/>
+      <c r="CD16" s="10"/>
+      <c r="CE16" s="26"/>
+      <c r="CF16" s="27"/>
       <c r="CG16" s="10"/>
       <c r="CH16" s="10"/>
       <c r="CI16" s="10"/>
       <c r="CJ16" s="10"/>
-      <c r="CK16" s="12"/>
+      <c r="CK16" s="10"/>
+      <c r="CL16" s="12"/>
     </row>
-    <row r="17" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B17" s="105"/>
-      <c r="C17" s="53" t="s">
+    <row r="17" spans="3:90" ht="26.4" customHeight="1">
+      <c r="C17" s="94"/>
+      <c r="D17" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="64">
+      <c r="E17" s="59">
         <v>44513</v>
       </c>
-      <c r="E17" s="64">
+      <c r="F17" s="59">
         <v>44521</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="27"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="124"/>
+      <c r="AA17" s="124"/>
+      <c r="AB17" s="124"/>
+      <c r="AC17" s="124"/>
+      <c r="AD17" s="124"/>
+      <c r="AE17" s="124"/>
+      <c r="AF17" s="125"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
       <c r="AK17" s="36"/>
       <c r="AL17" s="36"/>
       <c r="AM17" s="36"/>
       <c r="AN17" s="36"/>
       <c r="AO17" s="36"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="33"/>
-      <c r="AV17" s="27"/>
-      <c r="AW17" s="10"/>
-      <c r="AX17" s="10"/>
-      <c r="AY17" s="10"/>
-      <c r="AZ17" s="10"/>
-      <c r="BA17" s="10"/>
-      <c r="BB17" s="26"/>
-      <c r="BC17" s="27"/>
-      <c r="BD17" s="10"/>
-      <c r="BE17" s="10"/>
-      <c r="BF17" s="10"/>
-      <c r="BG17" s="10"/>
-      <c r="BH17" s="10"/>
-      <c r="BI17" s="26"/>
-      <c r="BJ17" s="27"/>
-      <c r="BK17" s="10"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="36"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="36"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="113"/>
+      <c r="AZ17" s="113"/>
+      <c r="BA17" s="113"/>
+      <c r="BB17" s="113"/>
+      <c r="BC17" s="113"/>
+      <c r="BD17" s="113"/>
+      <c r="BE17" s="113"/>
+      <c r="BF17" s="113"/>
+      <c r="BG17" s="113"/>
+      <c r="BH17" s="113"/>
+      <c r="BI17" s="113"/>
+      <c r="BJ17" s="114"/>
+      <c r="BK17" s="27"/>
       <c r="BL17" s="10"/>
       <c r="BM17" s="10"/>
       <c r="BN17" s="10"/>
       <c r="BO17" s="10"/>
-      <c r="BP17" s="26"/>
-      <c r="BQ17" s="27"/>
-      <c r="BR17" s="10"/>
+      <c r="BP17" s="10"/>
+      <c r="BQ17" s="26"/>
+      <c r="BR17" s="27"/>
       <c r="BS17" s="10"/>
       <c r="BT17" s="10"/>
       <c r="BU17" s="10"/>
       <c r="BV17" s="10"/>
-      <c r="BW17" s="26"/>
-      <c r="BX17" s="27"/>
-      <c r="BY17" s="10"/>
+      <c r="BW17" s="10"/>
+      <c r="BX17" s="26"/>
+      <c r="BY17" s="27"/>
       <c r="BZ17" s="10"/>
       <c r="CA17" s="10"/>
       <c r="CB17" s="10"/>
       <c r="CC17" s="10"/>
-      <c r="CD17" s="26"/>
-      <c r="CE17" s="27"/>
-      <c r="CF17" s="10"/>
+      <c r="CD17" s="10"/>
+      <c r="CE17" s="26"/>
+      <c r="CF17" s="27"/>
       <c r="CG17" s="10"/>
       <c r="CH17" s="10"/>
       <c r="CI17" s="10"/>
       <c r="CJ17" s="10"/>
-      <c r="CK17" s="12"/>
+      <c r="CK17" s="10"/>
+      <c r="CL17" s="12"/>
     </row>
-    <row r="18" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B18" s="105"/>
-      <c r="C18" s="53" t="s">
+    <row r="18" spans="3:90" ht="26.4" customHeight="1">
+      <c r="C18" s="94"/>
+      <c r="D18" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="64">
+      <c r="E18" s="59">
         <v>44513</v>
       </c>
-      <c r="E18" s="64">
+      <c r="F18" s="59">
         <v>44521</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="27"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="27"/>
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="36"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="32"/>
       <c r="AA18" s="36"/>
       <c r="AB18" s="36"/>
       <c r="AC18" s="36"/>
@@ -3205,1123 +3224,1124 @@
       <c r="AI18" s="36"/>
       <c r="AJ18" s="36"/>
       <c r="AK18" s="36"/>
-      <c r="AL18" s="39"/>
+      <c r="AL18" s="36"/>
       <c r="AM18" s="36"/>
       <c r="AN18" s="36"/>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="39"/>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="39"/>
-      <c r="AU18" s="33"/>
-      <c r="AV18" s="27"/>
-      <c r="AW18" s="10"/>
-      <c r="AX18" s="10"/>
-      <c r="AY18" s="10"/>
-      <c r="AZ18" s="10"/>
-      <c r="BA18" s="10"/>
-      <c r="BB18" s="26"/>
-      <c r="BC18" s="27"/>
-      <c r="BD18" s="10"/>
-      <c r="BE18" s="10"/>
-      <c r="BF18" s="10"/>
-      <c r="BG18" s="10"/>
-      <c r="BH18" s="10"/>
-      <c r="BI18" s="26"/>
-      <c r="BJ18" s="27"/>
-      <c r="BK18" s="10"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="36"/>
+      <c r="AT18" s="36"/>
+      <c r="AU18" s="36"/>
+      <c r="AV18" s="36"/>
+      <c r="AW18" s="113"/>
+      <c r="AX18" s="113"/>
+      <c r="AY18" s="113"/>
+      <c r="AZ18" s="113"/>
+      <c r="BA18" s="113"/>
+      <c r="BB18" s="113"/>
+      <c r="BC18" s="113"/>
+      <c r="BD18" s="113"/>
+      <c r="BE18" s="113"/>
+      <c r="BF18" s="113"/>
+      <c r="BG18" s="113"/>
+      <c r="BH18" s="113"/>
+      <c r="BI18" s="113"/>
+      <c r="BJ18" s="114"/>
+      <c r="BK18" s="27"/>
       <c r="BL18" s="10"/>
       <c r="BM18" s="10"/>
       <c r="BN18" s="10"/>
       <c r="BO18" s="10"/>
-      <c r="BP18" s="26"/>
-      <c r="BQ18" s="27"/>
-      <c r="BR18" s="10"/>
+      <c r="BP18" s="10"/>
+      <c r="BQ18" s="26"/>
+      <c r="BR18" s="27"/>
       <c r="BS18" s="10"/>
       <c r="BT18" s="10"/>
       <c r="BU18" s="10"/>
       <c r="BV18" s="10"/>
-      <c r="BW18" s="26"/>
-      <c r="BX18" s="27"/>
-      <c r="BY18" s="10"/>
+      <c r="BW18" s="10"/>
+      <c r="BX18" s="26"/>
+      <c r="BY18" s="27"/>
       <c r="BZ18" s="10"/>
       <c r="CA18" s="10"/>
       <c r="CB18" s="10"/>
       <c r="CC18" s="10"/>
-      <c r="CD18" s="26"/>
-      <c r="CE18" s="27"/>
-      <c r="CF18" s="10"/>
+      <c r="CD18" s="10"/>
+      <c r="CE18" s="26"/>
+      <c r="CF18" s="27"/>
       <c r="CG18" s="10"/>
       <c r="CH18" s="10"/>
       <c r="CI18" s="10"/>
       <c r="CJ18" s="10"/>
-      <c r="CK18" s="12"/>
+      <c r="CK18" s="10"/>
+      <c r="CL18" s="12"/>
     </row>
-    <row r="19" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B19" s="105"/>
-      <c r="C19" s="53" t="s">
+    <row r="19" spans="3:90" ht="26.4" customHeight="1">
+      <c r="C19" s="94"/>
+      <c r="D19" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="64">
+      <c r="E19" s="59">
         <v>44511</v>
       </c>
-      <c r="E19" s="64">
+      <c r="F19" s="59">
         <v>44521</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="27"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="27"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="39"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="39"/>
-      <c r="AI19" s="39"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="39"/>
-      <c r="AL19" s="39"/>
-      <c r="AM19" s="39"/>
-      <c r="AN19" s="33"/>
-      <c r="AO19" s="10"/>
-      <c r="AP19" s="10"/>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="10"/>
-      <c r="AS19" s="10"/>
-      <c r="AT19" s="10"/>
-      <c r="AU19" s="26"/>
-      <c r="AV19" s="27"/>
-      <c r="AW19" s="10"/>
-      <c r="AX19" s="10"/>
-      <c r="AY19" s="10"/>
-      <c r="AZ19" s="10"/>
-      <c r="BA19" s="10"/>
-      <c r="BB19" s="26"/>
-      <c r="BC19" s="27"/>
-      <c r="BD19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="35"/>
+      <c r="AP19" s="115"/>
+      <c r="AQ19" s="115"/>
+      <c r="AR19" s="115"/>
+      <c r="AS19" s="115"/>
+      <c r="AT19" s="115"/>
+      <c r="AU19" s="115"/>
+      <c r="AV19" s="115"/>
+      <c r="AW19" s="115"/>
+      <c r="AX19" s="115"/>
+      <c r="AY19" s="115"/>
+      <c r="AZ19" s="115"/>
+      <c r="BA19" s="115"/>
+      <c r="BB19" s="115"/>
+      <c r="BC19" s="116"/>
+      <c r="BD19" s="27"/>
       <c r="BE19" s="10"/>
       <c r="BF19" s="10"/>
       <c r="BG19" s="10"/>
       <c r="BH19" s="10"/>
-      <c r="BI19" s="26"/>
-      <c r="BJ19" s="27"/>
-      <c r="BK19" s="10"/>
+      <c r="BI19" s="10"/>
+      <c r="BJ19" s="26"/>
+      <c r="BK19" s="27"/>
       <c r="BL19" s="10"/>
       <c r="BM19" s="10"/>
       <c r="BN19" s="10"/>
       <c r="BO19" s="10"/>
-      <c r="BP19" s="26"/>
-      <c r="BQ19" s="27"/>
-      <c r="BR19" s="10"/>
+      <c r="BP19" s="10"/>
+      <c r="BQ19" s="26"/>
+      <c r="BR19" s="27"/>
       <c r="BS19" s="10"/>
       <c r="BT19" s="10"/>
       <c r="BU19" s="10"/>
       <c r="BV19" s="10"/>
-      <c r="BW19" s="26"/>
-      <c r="BX19" s="27"/>
-      <c r="BY19" s="10"/>
+      <c r="BW19" s="10"/>
+      <c r="BX19" s="26"/>
+      <c r="BY19" s="27"/>
       <c r="BZ19" s="10"/>
       <c r="CA19" s="10"/>
       <c r="CB19" s="10"/>
       <c r="CC19" s="10"/>
-      <c r="CD19" s="26"/>
-      <c r="CE19" s="27"/>
-      <c r="CF19" s="10"/>
+      <c r="CD19" s="10"/>
+      <c r="CE19" s="26"/>
+      <c r="CF19" s="27"/>
       <c r="CG19" s="10"/>
       <c r="CH19" s="10"/>
       <c r="CI19" s="10"/>
       <c r="CJ19" s="10"/>
-      <c r="CK19" s="12"/>
+      <c r="CK19" s="10"/>
+      <c r="CL19" s="12"/>
     </row>
-    <row r="20" spans="2:89" ht="26.4" customHeight="1" thickBot="1">
-      <c r="B20" s="106"/>
-      <c r="C20" s="53" t="s">
+    <row r="20" spans="3:90" ht="26.4" customHeight="1" thickBot="1">
+      <c r="C20" s="95"/>
+      <c r="D20" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="64">
+      <c r="E20" s="59">
         <v>44518</v>
       </c>
-      <c r="E20" s="64">
+      <c r="F20" s="59">
         <v>44523</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="27"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="27"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="27"/>
       <c r="AC20" s="10"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="39"/>
-      <c r="AN20" s="39"/>
-      <c r="AO20" s="39"/>
-      <c r="AP20" s="39"/>
-      <c r="AQ20" s="39"/>
-      <c r="AR20" s="39"/>
-      <c r="AS20" s="39"/>
-      <c r="AT20" s="39"/>
-      <c r="AU20" s="39"/>
-      <c r="AV20" s="39"/>
-      <c r="AW20" s="33"/>
-      <c r="AX20" s="10"/>
-      <c r="AY20" s="10"/>
-      <c r="AZ20" s="10"/>
-      <c r="BA20" s="10"/>
-      <c r="BB20" s="26"/>
-      <c r="BC20" s="27"/>
-      <c r="BD20" s="10"/>
-      <c r="BE20" s="10"/>
-      <c r="BF20" s="10"/>
-      <c r="BG20" s="10"/>
-      <c r="BH20" s="10"/>
-      <c r="BI20" s="26"/>
-      <c r="BJ20" s="27"/>
-      <c r="BK20" s="10"/>
-      <c r="BL20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="36"/>
+      <c r="AS20" s="36"/>
+      <c r="AT20" s="36"/>
+      <c r="AU20" s="36"/>
+      <c r="AV20" s="36"/>
+      <c r="AW20" s="36"/>
+      <c r="AX20" s="36"/>
+      <c r="AY20" s="113"/>
+      <c r="AZ20" s="113"/>
+      <c r="BA20" s="113"/>
+      <c r="BB20" s="113"/>
+      <c r="BC20" s="113"/>
+      <c r="BD20" s="113"/>
+      <c r="BE20" s="113"/>
+      <c r="BF20" s="113"/>
+      <c r="BG20" s="113"/>
+      <c r="BH20" s="113"/>
+      <c r="BI20" s="113"/>
+      <c r="BJ20" s="113"/>
+      <c r="BK20" s="113"/>
+      <c r="BL20" s="114"/>
       <c r="BM20" s="10"/>
       <c r="BN20" s="10"/>
       <c r="BO20" s="10"/>
-      <c r="BP20" s="26"/>
-      <c r="BQ20" s="27"/>
-      <c r="BR20" s="10"/>
+      <c r="BP20" s="10"/>
+      <c r="BQ20" s="26"/>
+      <c r="BR20" s="27"/>
       <c r="BS20" s="10"/>
       <c r="BT20" s="10"/>
       <c r="BU20" s="10"/>
       <c r="BV20" s="10"/>
-      <c r="BW20" s="26"/>
-      <c r="BX20" s="27"/>
-      <c r="BY20" s="10"/>
+      <c r="BW20" s="10"/>
+      <c r="BX20" s="26"/>
+      <c r="BY20" s="27"/>
       <c r="BZ20" s="10"/>
       <c r="CA20" s="10"/>
       <c r="CB20" s="10"/>
       <c r="CC20" s="10"/>
-      <c r="CD20" s="26"/>
-      <c r="CE20" s="27"/>
-      <c r="CF20" s="10"/>
+      <c r="CD20" s="10"/>
+      <c r="CE20" s="26"/>
+      <c r="CF20" s="27"/>
       <c r="CG20" s="10"/>
       <c r="CH20" s="10"/>
       <c r="CI20" s="10"/>
       <c r="CJ20" s="10"/>
-      <c r="CK20" s="12"/>
+      <c r="CK20" s="10"/>
+      <c r="CL20" s="12"/>
     </row>
-    <row r="21" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B21" s="101" t="s">
+    <row r="21" spans="3:90" ht="26.4" customHeight="1">
+      <c r="C21" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="D21" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="84">
+      <c r="E21" s="78">
         <v>44518</v>
       </c>
-      <c r="E21" s="84">
+      <c r="F21" s="78">
         <v>44521</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="27"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="27"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="27"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="27"/>
       <c r="AJ21" s="10"/>
       <c r="AK21" s="10"/>
       <c r="AL21" s="10"/>
       <c r="AM21" s="10"/>
-      <c r="AN21" s="26"/>
-      <c r="AO21" s="27"/>
-      <c r="AP21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="27"/>
       <c r="AQ21" s="10"/>
-      <c r="AR21" s="40"/>
-      <c r="AS21" s="41"/>
-      <c r="AT21" s="43"/>
-      <c r="AU21" s="42"/>
-      <c r="AV21" s="10"/>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="82"/>
+      <c r="AT21" s="82"/>
+      <c r="AU21" s="82"/>
+      <c r="AV21" s="83"/>
       <c r="AW21" s="10"/>
       <c r="AX21" s="10"/>
       <c r="AY21" s="10"/>
-      <c r="AZ21" s="10"/>
-      <c r="BA21" s="10"/>
-      <c r="BB21" s="26"/>
-      <c r="BC21" s="10"/>
+      <c r="AZ21" s="117"/>
+      <c r="BA21" s="118"/>
+      <c r="BB21" s="119"/>
+      <c r="BC21" s="120"/>
       <c r="BD21" s="10"/>
       <c r="BE21" s="10"/>
       <c r="BF21" s="10"/>
       <c r="BG21" s="10"/>
       <c r="BH21" s="10"/>
-      <c r="BI21" s="26"/>
-      <c r="BJ21" s="10"/>
+      <c r="BI21" s="10"/>
+      <c r="BJ21" s="26"/>
       <c r="BK21" s="10"/>
       <c r="BL21" s="10"/>
       <c r="BM21" s="10"/>
       <c r="BN21" s="10"/>
       <c r="BO21" s="10"/>
-      <c r="BP21" s="26"/>
-      <c r="BQ21" s="27"/>
-      <c r="BR21" s="10"/>
+      <c r="BP21" s="10"/>
+      <c r="BQ21" s="26"/>
+      <c r="BR21" s="27"/>
       <c r="BS21" s="10"/>
       <c r="BT21" s="10"/>
       <c r="BU21" s="10"/>
       <c r="BV21" s="10"/>
-      <c r="BW21" s="26"/>
-      <c r="BX21" s="27"/>
-      <c r="BY21" s="10"/>
+      <c r="BW21" s="10"/>
+      <c r="BX21" s="26"/>
+      <c r="BY21" s="27"/>
       <c r="BZ21" s="10"/>
       <c r="CA21" s="10"/>
       <c r="CB21" s="10"/>
       <c r="CC21" s="10"/>
-      <c r="CD21" s="26"/>
-      <c r="CE21" s="27"/>
-      <c r="CF21" s="10"/>
+      <c r="CD21" s="10"/>
+      <c r="CE21" s="26"/>
+      <c r="CF21" s="27"/>
       <c r="CG21" s="10"/>
       <c r="CH21" s="10"/>
       <c r="CI21" s="10"/>
       <c r="CJ21" s="10"/>
-      <c r="CK21" s="12"/>
+      <c r="CK21" s="10"/>
+      <c r="CL21" s="12"/>
     </row>
-    <row r="22" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B22" s="102"/>
-      <c r="C22" s="54" t="s">
+    <row r="22" spans="3:90" ht="26.4" customHeight="1">
+      <c r="C22" s="91"/>
+      <c r="D22" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="84">
+      <c r="E22" s="78">
         <v>44520</v>
       </c>
-      <c r="E22" s="84">
+      <c r="F22" s="78">
         <v>44505</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="27"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="27"/>
       <c r="V22" s="10"/>
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="27"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="27"/>
       <c r="AJ22" s="10"/>
       <c r="AK22" s="10"/>
       <c r="AL22" s="10"/>
       <c r="AM22" s="10"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="27"/>
-      <c r="AP22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="27"/>
       <c r="AQ22" s="10"/>
       <c r="AR22" s="10"/>
       <c r="AS22" s="10"/>
-      <c r="AT22" s="40"/>
-      <c r="AU22" s="41"/>
-      <c r="AV22" s="41"/>
-      <c r="AW22" s="41"/>
-      <c r="AX22" s="41"/>
-      <c r="AY22" s="41"/>
-      <c r="AZ22" s="41"/>
-      <c r="BA22" s="43"/>
-      <c r="BB22" s="41"/>
-      <c r="BC22" s="10"/>
-      <c r="BD22" s="10"/>
-      <c r="BE22" s="10"/>
-      <c r="BF22" s="10"/>
-      <c r="BG22" s="10"/>
-      <c r="BH22" s="10"/>
-      <c r="BI22" s="71"/>
-      <c r="BJ22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="82"/>
+      <c r="AV22" s="83"/>
+      <c r="AW22" s="82"/>
+      <c r="AX22" s="82"/>
+      <c r="AY22" s="82"/>
+      <c r="AZ22" s="82"/>
+      <c r="BA22" s="82"/>
+      <c r="BB22" s="37"/>
+      <c r="BC22" s="38"/>
+      <c r="BD22" s="118"/>
+      <c r="BE22" s="118"/>
+      <c r="BF22" s="118"/>
+      <c r="BG22" s="118"/>
+      <c r="BH22" s="118"/>
+      <c r="BI22" s="118"/>
+      <c r="BJ22" s="112"/>
       <c r="BK22" s="10"/>
       <c r="BL22" s="10"/>
       <c r="BM22" s="10"/>
       <c r="BN22" s="10"/>
       <c r="BO22" s="10"/>
-      <c r="BP22" s="26"/>
-      <c r="BQ22" s="27"/>
-      <c r="BR22" s="10"/>
+      <c r="BP22" s="10"/>
+      <c r="BQ22" s="26"/>
+      <c r="BR22" s="27"/>
       <c r="BS22" s="10"/>
       <c r="BT22" s="10"/>
       <c r="BU22" s="10"/>
       <c r="BV22" s="10"/>
-      <c r="BW22" s="26"/>
-      <c r="BX22" s="27"/>
-      <c r="BY22" s="10"/>
+      <c r="BW22" s="10"/>
+      <c r="BX22" s="26"/>
+      <c r="BY22" s="27"/>
       <c r="BZ22" s="10"/>
       <c r="CA22" s="10"/>
       <c r="CB22" s="10"/>
       <c r="CC22" s="10"/>
-      <c r="CD22" s="26"/>
-      <c r="CE22" s="27"/>
-      <c r="CF22" s="10"/>
+      <c r="CD22" s="10"/>
+      <c r="CE22" s="26"/>
+      <c r="CF22" s="27"/>
       <c r="CG22" s="10"/>
       <c r="CH22" s="10"/>
       <c r="CI22" s="10"/>
       <c r="CJ22" s="10"/>
-      <c r="CK22" s="12"/>
+      <c r="CK22" s="10"/>
+      <c r="CL22" s="12"/>
     </row>
-    <row r="23" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B23" s="102"/>
-      <c r="C23" s="54" t="s">
+    <row r="23" spans="3:90" ht="26.4" customHeight="1">
+      <c r="C23" s="91"/>
+      <c r="D23" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="84">
+      <c r="E23" s="78">
         <v>44527</v>
       </c>
-      <c r="E23" s="86">
+      <c r="F23" s="80">
         <v>44198</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="27"/>
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="27"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="27"/>
       <c r="AJ23" s="10"/>
       <c r="AK23" s="10"/>
       <c r="AL23" s="10"/>
       <c r="AM23" s="10"/>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="27"/>
-      <c r="AP23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="27"/>
       <c r="AQ23" s="10"/>
       <c r="AR23" s="10"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
-      <c r="AU23" s="26"/>
-      <c r="AV23" s="27"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="26"/>
       <c r="AW23" s="10"/>
       <c r="AX23" s="10"/>
       <c r="AY23" s="10"/>
       <c r="AZ23" s="10"/>
-      <c r="BA23" s="45"/>
-      <c r="BB23" s="41"/>
-      <c r="BC23" s="41"/>
-      <c r="BD23" s="41"/>
-      <c r="BE23" s="41"/>
-      <c r="BF23" s="41"/>
-      <c r="BG23" s="41"/>
-      <c r="BH23" s="41"/>
-      <c r="BI23" s="41"/>
-      <c r="BJ23" s="41"/>
-      <c r="BK23" s="41"/>
-      <c r="BL23" s="41"/>
-      <c r="BM23" s="41"/>
-      <c r="BN23" s="41"/>
-      <c r="BO23" s="41"/>
-      <c r="BP23" s="41"/>
-      <c r="BQ23" s="41"/>
-      <c r="BR23" s="41"/>
-      <c r="BS23" s="41"/>
-      <c r="BT23" s="41"/>
-      <c r="BU23" s="41"/>
-      <c r="BV23" s="41"/>
-      <c r="BW23" s="41"/>
-      <c r="BX23" s="41"/>
-      <c r="BY23" s="41"/>
-      <c r="BZ23" s="41"/>
-      <c r="CA23" s="41"/>
-      <c r="CB23" s="41"/>
-      <c r="CC23" s="41"/>
-      <c r="CD23" s="42"/>
-      <c r="CE23" s="27"/>
-      <c r="CF23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="64"/>
+      <c r="BC23" s="77"/>
+      <c r="BD23" s="63"/>
+      <c r="BE23" s="63"/>
+      <c r="BF23" s="63"/>
+      <c r="BG23" s="63"/>
+      <c r="BH23" s="63"/>
+      <c r="BI23" s="37"/>
+      <c r="BJ23" s="38"/>
+      <c r="BK23" s="38"/>
+      <c r="BL23" s="38"/>
+      <c r="BM23" s="38"/>
+      <c r="BN23" s="38"/>
+      <c r="BO23" s="38"/>
+      <c r="BP23" s="38"/>
+      <c r="BQ23" s="38"/>
+      <c r="BR23" s="38"/>
+      <c r="BS23" s="38"/>
+      <c r="BT23" s="38"/>
+      <c r="BU23" s="38"/>
+      <c r="BV23" s="38"/>
+      <c r="BW23" s="38"/>
+      <c r="BX23" s="38"/>
+      <c r="BY23" s="38"/>
+      <c r="BZ23" s="38"/>
+      <c r="CA23" s="38"/>
+      <c r="CB23" s="38"/>
+      <c r="CC23" s="38"/>
+      <c r="CD23" s="38"/>
+      <c r="CE23" s="39"/>
+      <c r="CF23" s="27"/>
       <c r="CG23" s="10"/>
       <c r="CH23" s="10"/>
       <c r="CI23" s="10"/>
       <c r="CJ23" s="10"/>
-      <c r="CK23" s="12"/>
+      <c r="CK23" s="10"/>
+      <c r="CL23" s="12"/>
     </row>
-    <row r="24" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B24" s="102"/>
-      <c r="C24" s="54" t="s">
+    <row r="24" spans="3:90" ht="26.4" customHeight="1">
+      <c r="C24" s="91"/>
+      <c r="D24" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="84">
+      <c r="E24" s="78">
         <v>44520</v>
       </c>
-      <c r="E24" s="86">
+      <c r="F24" s="80">
         <v>44542</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="27"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="27"/>
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="27"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="27"/>
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
       <c r="AL24" s="10"/>
       <c r="AM24" s="10"/>
-      <c r="AN24" s="26"/>
-      <c r="AO24" s="27"/>
-      <c r="AP24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="27"/>
       <c r="AQ24" s="10"/>
       <c r="AR24" s="10"/>
       <c r="AS24" s="10"/>
-      <c r="AT24" s="40"/>
-      <c r="AU24" s="41"/>
-      <c r="AV24" s="41"/>
-      <c r="AW24" s="41"/>
-      <c r="AX24" s="41"/>
-      <c r="AY24" s="41"/>
-      <c r="AZ24" s="41"/>
-      <c r="BA24" s="41"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="82"/>
+      <c r="AV24" s="83"/>
+      <c r="AW24" s="82"/>
+      <c r="AX24" s="82"/>
+      <c r="AY24" s="82"/>
+      <c r="AZ24" s="82"/>
+      <c r="BA24" s="82"/>
       <c r="BB24" s="41"/>
-      <c r="BC24" s="41"/>
-      <c r="BD24" s="41"/>
-      <c r="BE24" s="41"/>
-      <c r="BF24" s="41"/>
-      <c r="BG24" s="41"/>
-      <c r="BH24" s="41"/>
-      <c r="BI24" s="42"/>
-      <c r="BJ24" s="27"/>
-      <c r="BK24" s="10"/>
-      <c r="BL24" s="10"/>
-      <c r="BM24" s="10"/>
-      <c r="BN24" s="10"/>
-      <c r="BO24" s="10"/>
-      <c r="BP24" s="26"/>
-      <c r="BQ24" s="27"/>
-      <c r="BR24" s="10"/>
+      <c r="BC24" s="40"/>
+      <c r="BD24" s="40"/>
+      <c r="BE24" s="40"/>
+      <c r="BF24" s="40"/>
+      <c r="BG24" s="40"/>
+      <c r="BH24" s="40"/>
+      <c r="BI24" s="40"/>
+      <c r="BJ24" s="40"/>
+      <c r="BK24" s="119"/>
+      <c r="BL24" s="119"/>
+      <c r="BM24" s="119"/>
+      <c r="BN24" s="119"/>
+      <c r="BO24" s="119"/>
+      <c r="BP24" s="119"/>
+      <c r="BQ24" s="120"/>
+      <c r="BR24" s="27"/>
       <c r="BS24" s="10"/>
       <c r="BT24" s="10"/>
       <c r="BU24" s="10"/>
       <c r="BV24" s="10"/>
-      <c r="BW24" s="26"/>
-      <c r="BX24" s="27"/>
-      <c r="BY24" s="10"/>
+      <c r="BW24" s="10"/>
+      <c r="BX24" s="26"/>
+      <c r="BY24" s="27"/>
       <c r="BZ24" s="10"/>
       <c r="CA24" s="10"/>
       <c r="CB24" s="10"/>
       <c r="CC24" s="10"/>
-      <c r="CD24" s="26"/>
-      <c r="CE24" s="27"/>
-      <c r="CF24" s="10"/>
+      <c r="CD24" s="10"/>
+      <c r="CE24" s="26"/>
+      <c r="CF24" s="27"/>
       <c r="CG24" s="10"/>
       <c r="CH24" s="10"/>
       <c r="CI24" s="10"/>
       <c r="CJ24" s="10"/>
-      <c r="CK24" s="12"/>
+      <c r="CK24" s="10"/>
+      <c r="CL24" s="12"/>
     </row>
-    <row r="25" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B25" s="102"/>
-      <c r="C25" s="54" t="s">
+    <row r="25" spans="3:90" ht="26.4" customHeight="1">
+      <c r="C25" s="91"/>
+      <c r="D25" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="84">
+      <c r="E25" s="78">
         <v>44520</v>
       </c>
-      <c r="E25" s="86">
+      <c r="F25" s="80">
         <v>44549</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="27"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="27"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="27"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="27"/>
       <c r="AJ25" s="10"/>
       <c r="AK25" s="10"/>
       <c r="AL25" s="10"/>
       <c r="AM25" s="10"/>
-      <c r="AN25" s="26"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="27"/>
       <c r="AQ25" s="10"/>
       <c r="AR25" s="10"/>
       <c r="AS25" s="10"/>
-      <c r="AT25" s="40"/>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
-      <c r="AW25" s="41"/>
-      <c r="AX25" s="41"/>
-      <c r="AY25" s="41"/>
-      <c r="AZ25" s="41"/>
-      <c r="BA25" s="41"/>
-      <c r="BB25" s="41"/>
-      <c r="BC25" s="41"/>
-      <c r="BD25" s="41"/>
-      <c r="BE25" s="41"/>
-      <c r="BF25" s="41"/>
-      <c r="BG25" s="41"/>
-      <c r="BH25" s="41"/>
-      <c r="BI25" s="41"/>
-      <c r="BJ25" s="41"/>
-      <c r="BK25" s="41"/>
-      <c r="BL25" s="41"/>
-      <c r="BM25" s="41"/>
-      <c r="BN25" s="41"/>
-      <c r="BO25" s="41"/>
-      <c r="BP25" s="42"/>
-      <c r="BQ25" s="27"/>
-      <c r="BR25" s="10"/>
-      <c r="BS25" s="10"/>
-      <c r="BT25" s="10"/>
-      <c r="BU25" s="10"/>
-      <c r="BV25" s="10"/>
-      <c r="BW25" s="26"/>
-      <c r="BX25" s="27"/>
-      <c r="BY25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="82"/>
+      <c r="AV25" s="83"/>
+      <c r="AW25" s="82"/>
+      <c r="AX25" s="82"/>
+      <c r="AY25" s="82"/>
+      <c r="AZ25" s="82"/>
+      <c r="BA25" s="82"/>
+      <c r="BB25" s="37"/>
+      <c r="BC25" s="38"/>
+      <c r="BD25" s="38"/>
+      <c r="BE25" s="38"/>
+      <c r="BF25" s="38"/>
+      <c r="BG25" s="38"/>
+      <c r="BH25" s="38"/>
+      <c r="BI25" s="38"/>
+      <c r="BJ25" s="38"/>
+      <c r="BK25" s="38"/>
+      <c r="BL25" s="38"/>
+      <c r="BM25" s="38"/>
+      <c r="BN25" s="38"/>
+      <c r="BO25" s="38"/>
+      <c r="BP25" s="38"/>
+      <c r="BQ25" s="38"/>
+      <c r="BR25" s="118"/>
+      <c r="BS25" s="118"/>
+      <c r="BT25" s="118"/>
+      <c r="BU25" s="118"/>
+      <c r="BV25" s="118"/>
+      <c r="BW25" s="118"/>
+      <c r="BX25" s="112"/>
+      <c r="BY25" s="27"/>
       <c r="BZ25" s="10"/>
       <c r="CA25" s="10"/>
       <c r="CB25" s="10"/>
       <c r="CC25" s="10"/>
-      <c r="CD25" s="26"/>
-      <c r="CE25" s="27"/>
-      <c r="CF25" s="10"/>
+      <c r="CD25" s="10"/>
+      <c r="CE25" s="26"/>
+      <c r="CF25" s="27"/>
       <c r="CG25" s="10"/>
       <c r="CH25" s="10"/>
       <c r="CI25" s="10"/>
       <c r="CJ25" s="10"/>
-      <c r="CK25" s="12"/>
+      <c r="CK25" s="10"/>
+      <c r="CL25" s="12"/>
     </row>
-    <row r="26" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B26" s="102"/>
-      <c r="C26" s="54" t="s">
+    <row r="26" spans="3:90" ht="26.4" customHeight="1">
+      <c r="C26" s="91"/>
+      <c r="D26" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="84">
+      <c r="E26" s="78">
         <v>44529</v>
       </c>
-      <c r="E26" s="84">
+      <c r="F26" s="78">
         <v>44542</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="27"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="27"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="27"/>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="27"/>
-      <c r="AI26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="27"/>
       <c r="AJ26" s="10"/>
       <c r="AK26" s="10"/>
       <c r="AL26" s="10"/>
       <c r="AM26" s="10"/>
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="27"/>
-      <c r="AP26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="27"/>
       <c r="AQ26" s="10"/>
       <c r="AR26" s="10"/>
       <c r="AS26" s="10"/>
-      <c r="AT26" s="69"/>
-      <c r="AU26" s="70"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="82"/>
       <c r="AV26" s="83"/>
-      <c r="AW26" s="69"/>
-      <c r="AX26" s="69"/>
-      <c r="AY26" s="69"/>
-      <c r="AZ26" s="69"/>
-      <c r="BA26" s="69"/>
-      <c r="BB26" s="70"/>
-      <c r="BC26" s="41"/>
-      <c r="BD26" s="41"/>
-      <c r="BE26" s="41"/>
-      <c r="BF26" s="41"/>
-      <c r="BG26" s="41"/>
-      <c r="BH26" s="43"/>
-      <c r="BI26" s="42"/>
-      <c r="BJ26" s="10"/>
-      <c r="BK26" s="10"/>
-      <c r="BL26" s="10"/>
-      <c r="BM26" s="10"/>
-      <c r="BN26" s="10"/>
-      <c r="BO26" s="10"/>
-      <c r="BP26" s="91"/>
-      <c r="BQ26" s="10"/>
+      <c r="AW26" s="84"/>
+      <c r="AX26" s="82"/>
+      <c r="AY26" s="82"/>
+      <c r="AZ26" s="82"/>
+      <c r="BA26" s="82"/>
+      <c r="BB26" s="82"/>
+      <c r="BC26" s="65"/>
+      <c r="BD26" s="82"/>
+      <c r="BE26" s="82"/>
+      <c r="BF26" s="82"/>
+      <c r="BG26" s="82"/>
+      <c r="BH26" s="82"/>
+      <c r="BI26" s="82"/>
+      <c r="BJ26" s="82"/>
+      <c r="BK26" s="117"/>
+      <c r="BL26" s="118"/>
+      <c r="BM26" s="118"/>
+      <c r="BN26" s="118"/>
+      <c r="BO26" s="118"/>
+      <c r="BP26" s="118"/>
+      <c r="BQ26" s="112"/>
       <c r="BR26" s="10"/>
       <c r="BS26" s="10"/>
       <c r="BT26" s="10"/>
       <c r="BU26" s="10"/>
       <c r="BV26" s="10"/>
-      <c r="BW26" s="71"/>
-      <c r="BX26" s="10"/>
+      <c r="BW26" s="10"/>
+      <c r="BX26" s="66"/>
       <c r="BY26" s="10"/>
       <c r="BZ26" s="10"/>
       <c r="CA26" s="10"/>
       <c r="CB26" s="10"/>
       <c r="CC26" s="10"/>
       <c r="CD26" s="10"/>
-      <c r="CE26" s="27"/>
-      <c r="CF26" s="10"/>
+      <c r="CE26" s="10"/>
+      <c r="CF26" s="27"/>
       <c r="CG26" s="10"/>
       <c r="CH26" s="10"/>
       <c r="CI26" s="10"/>
       <c r="CJ26" s="10"/>
-      <c r="CK26" s="12"/>
+      <c r="CK26" s="10"/>
+      <c r="CL26" s="12"/>
     </row>
-    <row r="27" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B27" s="102"/>
-      <c r="C27" s="54" t="s">
+    <row r="27" spans="3:90" ht="26.4" customHeight="1">
+      <c r="C27" s="91"/>
+      <c r="D27" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="84">
+      <c r="E27" s="78">
         <v>44543</v>
       </c>
-      <c r="E27" s="86">
+      <c r="F27" s="80">
         <v>44556</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="27"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="27"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="27"/>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="27"/>
       <c r="AJ27" s="10"/>
       <c r="AK27" s="10"/>
       <c r="AL27" s="10"/>
       <c r="AM27" s="10"/>
-      <c r="AN27" s="26"/>
-      <c r="AO27" s="27"/>
-      <c r="AP27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="26"/>
+      <c r="AP27" s="27"/>
       <c r="AQ27" s="10"/>
       <c r="AR27" s="10"/>
       <c r="AS27" s="10"/>
-      <c r="AT27" s="88"/>
-      <c r="AU27" s="89"/>
-      <c r="AV27" s="90"/>
-      <c r="AW27" s="88"/>
-      <c r="AX27" s="88"/>
-      <c r="AY27" s="88"/>
-      <c r="AZ27" s="88"/>
-      <c r="BA27" s="88"/>
-      <c r="BB27" s="89"/>
-      <c r="BC27" s="68"/>
-      <c r="BD27" s="68"/>
-      <c r="BE27" s="68"/>
-      <c r="BF27" s="68"/>
-      <c r="BG27" s="68"/>
-      <c r="BH27" s="69"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="82"/>
+      <c r="AV27" s="83"/>
+      <c r="AW27" s="84"/>
+      <c r="AX27" s="82"/>
+      <c r="AY27" s="82"/>
+      <c r="AZ27" s="82"/>
+      <c r="BA27" s="82"/>
+      <c r="BB27" s="82"/>
+      <c r="BC27" s="83"/>
+      <c r="BD27" s="82"/>
+      <c r="BE27" s="82"/>
+      <c r="BF27" s="82"/>
+      <c r="BG27" s="82"/>
+      <c r="BH27" s="82"/>
       <c r="BI27" s="82"/>
-      <c r="BJ27" s="41"/>
-      <c r="BK27" s="41"/>
-      <c r="BL27" s="41"/>
-      <c r="BM27" s="41"/>
-      <c r="BN27" s="41"/>
-      <c r="BO27" s="41"/>
-      <c r="BP27" s="41"/>
-      <c r="BQ27" s="41"/>
-      <c r="BR27" s="41"/>
-      <c r="BS27" s="41"/>
-      <c r="BT27" s="41"/>
-      <c r="BU27" s="41"/>
-      <c r="BV27" s="41"/>
-      <c r="BW27" s="42"/>
-      <c r="BX27" s="10"/>
+      <c r="BJ27" s="123"/>
+      <c r="BK27" s="64"/>
+      <c r="BL27" s="64"/>
+      <c r="BM27" s="64"/>
+      <c r="BN27" s="64"/>
+      <c r="BO27" s="64"/>
+      <c r="BP27" s="64"/>
+      <c r="BQ27" s="64"/>
+      <c r="BR27" s="37"/>
+      <c r="BS27" s="38"/>
+      <c r="BT27" s="38"/>
+      <c r="BU27" s="38"/>
+      <c r="BV27" s="38"/>
+      <c r="BW27" s="38"/>
+      <c r="BX27" s="39"/>
       <c r="BY27" s="10"/>
       <c r="BZ27" s="10"/>
       <c r="CA27" s="10"/>
       <c r="CB27" s="10"/>
       <c r="CC27" s="10"/>
       <c r="CD27" s="10"/>
-      <c r="CE27" s="27"/>
-      <c r="CF27" s="10"/>
+      <c r="CE27" s="10"/>
+      <c r="CF27" s="27"/>
       <c r="CG27" s="10"/>
       <c r="CH27" s="10"/>
       <c r="CI27" s="10"/>
       <c r="CJ27" s="10"/>
-      <c r="CK27" s="12"/>
+      <c r="CK27" s="10"/>
+      <c r="CL27" s="12"/>
     </row>
-    <row r="28" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B28" s="102"/>
-      <c r="C28" s="54" t="s">
+    <row r="28" spans="3:90" ht="26.4" customHeight="1">
+      <c r="C28" s="91"/>
+      <c r="D28" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="84">
+      <c r="E28" s="78">
         <v>44527</v>
       </c>
-      <c r="E28" s="86">
+      <c r="F28" s="80">
         <v>44198</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="27"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="27"/>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="27"/>
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="27"/>
       <c r="AJ28" s="10"/>
       <c r="AK28" s="10"/>
       <c r="AL28" s="10"/>
       <c r="AM28" s="10"/>
-      <c r="AN28" s="26"/>
-      <c r="AO28" s="27"/>
-      <c r="AP28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="27"/>
       <c r="AQ28" s="10"/>
       <c r="AR28" s="10"/>
       <c r="AS28" s="10"/>
       <c r="AT28" s="10"/>
-      <c r="AU28" s="26"/>
-      <c r="AV28" s="27"/>
-      <c r="AW28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="26"/>
+      <c r="AW28" s="27"/>
       <c r="AX28" s="10"/>
       <c r="AY28" s="10"/>
       <c r="AZ28" s="10"/>
-      <c r="BA28" s="40"/>
-      <c r="BB28" s="41"/>
-      <c r="BC28" s="41"/>
-      <c r="BD28" s="41"/>
-      <c r="BE28" s="41"/>
-      <c r="BF28" s="41"/>
-      <c r="BG28" s="41"/>
-      <c r="BH28" s="41"/>
-      <c r="BI28" s="41"/>
-      <c r="BJ28" s="41"/>
-      <c r="BK28" s="41"/>
-      <c r="BL28" s="41"/>
-      <c r="BM28" s="41"/>
-      <c r="BN28" s="41"/>
-      <c r="BO28" s="41"/>
-      <c r="BP28" s="41"/>
-      <c r="BQ28" s="41"/>
-      <c r="BR28" s="41"/>
-      <c r="BS28" s="41"/>
-      <c r="BT28" s="41"/>
-      <c r="BU28" s="41"/>
-      <c r="BV28" s="41"/>
-      <c r="BW28" s="41"/>
-      <c r="BX28" s="41"/>
-      <c r="BY28" s="41"/>
-      <c r="BZ28" s="41"/>
-      <c r="CA28" s="41"/>
-      <c r="CB28" s="41"/>
-      <c r="CC28" s="43"/>
-      <c r="CD28" s="44"/>
-      <c r="CE28" s="27"/>
-      <c r="CF28" s="10"/>
+      <c r="BA28" s="10"/>
+      <c r="BB28" s="82"/>
+      <c r="BC28" s="83"/>
+      <c r="BD28" s="82"/>
+      <c r="BE28" s="82"/>
+      <c r="BF28" s="82"/>
+      <c r="BG28" s="82"/>
+      <c r="BH28" s="82"/>
+      <c r="BI28" s="37"/>
+      <c r="BJ28" s="38"/>
+      <c r="BK28" s="38"/>
+      <c r="BL28" s="38"/>
+      <c r="BM28" s="38"/>
+      <c r="BN28" s="38"/>
+      <c r="BO28" s="38"/>
+      <c r="BP28" s="38"/>
+      <c r="BQ28" s="38"/>
+      <c r="BR28" s="38"/>
+      <c r="BS28" s="38"/>
+      <c r="BT28" s="38"/>
+      <c r="BU28" s="38"/>
+      <c r="BV28" s="38"/>
+      <c r="BW28" s="38"/>
+      <c r="BX28" s="38"/>
+      <c r="BY28" s="38"/>
+      <c r="BZ28" s="38"/>
+      <c r="CA28" s="38"/>
+      <c r="CB28" s="38"/>
+      <c r="CC28" s="38"/>
+      <c r="CD28" s="38"/>
+      <c r="CE28" s="39"/>
+      <c r="CF28" s="27"/>
       <c r="CG28" s="10"/>
       <c r="CH28" s="10"/>
       <c r="CI28" s="10"/>
       <c r="CJ28" s="10"/>
-      <c r="CK28" s="12"/>
+      <c r="CK28" s="10"/>
+      <c r="CL28" s="12"/>
     </row>
-    <row r="29" spans="2:89" ht="26.4" customHeight="1" thickBot="1">
-      <c r="B29" s="103"/>
-      <c r="C29" s="55" t="s">
+    <row r="29" spans="3:90" ht="26.4" customHeight="1" thickBot="1">
+      <c r="C29" s="92"/>
+      <c r="D29" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="85">
+      <c r="E29" s="79">
         <v>44197</v>
       </c>
-      <c r="E29" s="87">
+      <c r="F29" s="81">
         <v>44205</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="13"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="42"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="42"/>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="42"/>
       <c r="AC29" s="13"/>
       <c r="AD29" s="13"/>
       <c r="AE29" s="13"/>
       <c r="AF29" s="13"/>
-      <c r="AG29" s="47"/>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="42"/>
       <c r="AJ29" s="13"/>
       <c r="AK29" s="13"/>
       <c r="AL29" s="13"/>
       <c r="AM29" s="13"/>
-      <c r="AN29" s="47"/>
-      <c r="AO29" s="46"/>
-      <c r="AP29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="43"/>
+      <c r="AP29" s="42"/>
       <c r="AQ29" s="13"/>
       <c r="AR29" s="13"/>
       <c r="AS29" s="13"/>
       <c r="AT29" s="13"/>
-      <c r="AU29" s="47"/>
-      <c r="AV29" s="46"/>
-      <c r="AW29" s="13"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="43"/>
+      <c r="AW29" s="42"/>
       <c r="AX29" s="13"/>
       <c r="AY29" s="13"/>
       <c r="AZ29" s="13"/>
       <c r="BA29" s="13"/>
-      <c r="BB29" s="47"/>
-      <c r="BC29" s="46"/>
-      <c r="BD29" s="13"/>
+      <c r="BB29" s="13"/>
+      <c r="BC29" s="43"/>
+      <c r="BD29" s="42"/>
       <c r="BE29" s="13"/>
       <c r="BF29" s="13"/>
       <c r="BG29" s="13"/>
       <c r="BH29" s="13"/>
-      <c r="BI29" s="47"/>
-      <c r="BJ29" s="46"/>
-      <c r="BK29" s="13"/>
+      <c r="BI29" s="13"/>
+      <c r="BJ29" s="43"/>
+      <c r="BK29" s="42"/>
       <c r="BL29" s="13"/>
       <c r="BM29" s="13"/>
       <c r="BN29" s="13"/>
       <c r="BO29" s="13"/>
-      <c r="BP29" s="47"/>
-      <c r="BQ29" s="46"/>
-      <c r="BR29" s="13"/>
+      <c r="BP29" s="13"/>
+      <c r="BQ29" s="43"/>
+      <c r="BR29" s="42"/>
       <c r="BS29" s="13"/>
       <c r="BT29" s="13"/>
       <c r="BU29" s="13"/>
       <c r="BV29" s="13"/>
-      <c r="BW29" s="47"/>
-      <c r="BX29" s="13"/>
+      <c r="BW29" s="13"/>
+      <c r="BX29" s="43"/>
       <c r="BY29" s="13"/>
       <c r="BZ29" s="13"/>
       <c r="CA29" s="13"/>
-      <c r="CB29" s="47"/>
-      <c r="CC29" s="48"/>
-      <c r="CD29" s="49"/>
-      <c r="CE29" s="49"/>
-      <c r="CF29" s="49"/>
-      <c r="CG29" s="49"/>
-      <c r="CH29" s="49"/>
-      <c r="CI29" s="49"/>
-      <c r="CJ29" s="49"/>
-      <c r="CK29" s="92"/>
+      <c r="CB29" s="13"/>
+      <c r="CC29" s="43"/>
+      <c r="CD29" s="121"/>
+      <c r="CE29" s="122"/>
+      <c r="CF29" s="44"/>
+      <c r="CG29" s="44"/>
+      <c r="CH29" s="44"/>
+      <c r="CI29" s="44"/>
+      <c r="CJ29" s="44"/>
+      <c r="CK29" s="44"/>
+      <c r="CL29" s="85"/>
     </row>
-    <row r="30" spans="2:89" ht="26.4" customHeight="1">
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
+    <row r="30" spans="3:90" ht="26.4" customHeight="1">
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="2:89" ht="26.4" customHeight="1"/>
-    <row r="32" spans="2:89" ht="26.4" customHeight="1"/>
+    <row r="31" spans="3:90" ht="26.4" customHeight="1"/>
+    <row r="32" spans="3:90" ht="26.4" customHeight="1"/>
     <row r="33" ht="26.4" customHeight="1"/>
     <row r="34" ht="26.4" customHeight="1"/>
     <row r="35" ht="26.4" customHeight="1"/>
@@ -4407,24 +4427,24 @@
     <row r="115" ht="26.4" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="U3:AA3"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AP3:AV3"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="C21:C29"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="F3:F5"/>
     <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="BQ3:BW3"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="BX3:CD3"/>
-    <mergeCell ref="CE3:CK3"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="AO3:AU3"/>
-    <mergeCell ref="AV3:BB3"/>
-    <mergeCell ref="BC3:BI3"/>
-    <mergeCell ref="BJ3:BP3"/>
+    <mergeCell ref="BR3:BX3"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="25" orientation="landscape" r:id="rId1"/>
